--- a/main/static/records/Grade2.xlsx
+++ b/main/static/records/Grade2.xlsx
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+  <si>
+    <t xml:space="preserve">RFID No.</t>
+  </si>
   <si>
     <t xml:space="preserve">LAST NAME</t>
   </si>
@@ -61,7 +64,7 @@
     <t xml:space="preserve">Marie Christine Bayani</t>
   </si>
   <si>
-    <t xml:space="preserve">09175157223</t>
+    <t xml:space="preserve">09175157223 / 09228468872</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -70,6 +73,24 @@
     <t xml:space="preserve">18-0030</t>
   </si>
   <si>
+    <t xml:space="preserve">De Gala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ainsley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Corazon Abaigar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09399406490</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-0031</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maniebo</t>
   </si>
   <si>
@@ -85,25 +106,25 @@
     <t xml:space="preserve">Rosaline Briones</t>
   </si>
   <si>
-    <t xml:space="preserve">09274046216</t>
+    <t xml:space="preserve">09274046216 / 09275639146</t>
   </si>
   <si>
     <t xml:space="preserve">18-0032</t>
   </si>
   <si>
+    <t xml:space="preserve">0006602570</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mangundayao</t>
   </si>
   <si>
     <t xml:space="preserve">Jenzel Paulo</t>
   </si>
   <si>
-    <t xml:space="preserve">901 clarisse subd. Masalukot 1 cand. Quezon</t>
-  </si>
-  <si>
     <t xml:space="preserve">Liezel Mangundayao</t>
   </si>
   <si>
-    <t xml:space="preserve">09152880488</t>
+    <t xml:space="preserve">09152880488 / 09283005195</t>
   </si>
   <si>
     <t xml:space="preserve">18-0034</t>
@@ -130,6 +151,9 @@
     <t xml:space="preserve">18-0035</t>
   </si>
   <si>
+    <t xml:space="preserve">0006614027</t>
+  </si>
+  <si>
     <t xml:space="preserve">Santos</t>
   </si>
   <si>
@@ -145,10 +169,28 @@
     <t xml:space="preserve">Mila Santos</t>
   </si>
   <si>
-    <t xml:space="preserve">09778900077</t>
+    <t xml:space="preserve">09778900077 / 09178291882</t>
   </si>
   <si>
     <t xml:space="preserve">18-0036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van Der Westhuizen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christiaan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norie Padillo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09229076800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18-0037</t>
   </si>
 </sst>
 </file>
@@ -182,26 +224,32 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FFFF6600"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -238,16 +286,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -255,7 +307,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -291,7 +355,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFF6666"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -325,7 +389,7 @@
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF222222"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -336,180 +400,251 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:I6"/>
+  <dimension ref="1:8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="71.6785714285714"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="1" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.0663265306122"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="54.5357142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="19.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.6632653061225"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="2" t="s">
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5"/>
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="2" t="s">
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="5" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="C5" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="7" t="s">
         <v>35</v>
       </c>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AMJ8" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/main/static/records/Grade2.xlsx
+++ b/main/static/records/Grade2.xlsx
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Marie Christine Bayani</t>
   </si>
   <si>
-    <t xml:space="preserve">09175157223 / 09228468872</t>
+    <t xml:space="preserve">09175157223</t>
   </si>
   <si>
     <t xml:space="preserve">-</t>
@@ -106,7 +106,7 @@
     <t xml:space="preserve">Rosaline Briones</t>
   </si>
   <si>
-    <t xml:space="preserve">09274046216 / 09275639146</t>
+    <t xml:space="preserve">09274046216</t>
   </si>
   <si>
     <t xml:space="preserve">18-0032</t>
@@ -124,7 +124,7 @@
     <t xml:space="preserve">Liezel Mangundayao</t>
   </si>
   <si>
-    <t xml:space="preserve">09152880488 / 09283005195</t>
+    <t xml:space="preserve">09152880488</t>
   </si>
   <si>
     <t xml:space="preserve">18-0034</t>
@@ -169,7 +169,7 @@
     <t xml:space="preserve">Mila Santos</t>
   </si>
   <si>
-    <t xml:space="preserve">09778900077 / 09178291882</t>
+    <t xml:space="preserve">09778900077</t>
   </si>
   <si>
     <t xml:space="preserve">18-0036</t>
@@ -403,21 +403,21 @@
   <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="54.5357142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.6632653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.6632653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="53.8622448979592"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -476,6 +476,1020 @@
       <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="0"/>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
+      <c r="AB2" s="0"/>
+      <c r="AC2" s="0"/>
+      <c r="AD2" s="0"/>
+      <c r="AE2" s="0"/>
+      <c r="AF2" s="0"/>
+      <c r="AG2" s="0"/>
+      <c r="AH2" s="0"/>
+      <c r="AI2" s="0"/>
+      <c r="AJ2" s="0"/>
+      <c r="AK2" s="0"/>
+      <c r="AL2" s="0"/>
+      <c r="AM2" s="0"/>
+      <c r="AN2" s="0"/>
+      <c r="AO2" s="0"/>
+      <c r="AP2" s="0"/>
+      <c r="AQ2" s="0"/>
+      <c r="AR2" s="0"/>
+      <c r="AS2" s="0"/>
+      <c r="AT2" s="0"/>
+      <c r="AU2" s="0"/>
+      <c r="AV2" s="0"/>
+      <c r="AW2" s="0"/>
+      <c r="AX2" s="0"/>
+      <c r="AY2" s="0"/>
+      <c r="AZ2" s="0"/>
+      <c r="BA2" s="0"/>
+      <c r="BB2" s="0"/>
+      <c r="BC2" s="0"/>
+      <c r="BD2" s="0"/>
+      <c r="BE2" s="0"/>
+      <c r="BF2" s="0"/>
+      <c r="BG2" s="0"/>
+      <c r="BH2" s="0"/>
+      <c r="BI2" s="0"/>
+      <c r="BJ2" s="0"/>
+      <c r="BK2" s="0"/>
+      <c r="BL2" s="0"/>
+      <c r="BM2" s="0"/>
+      <c r="BN2" s="0"/>
+      <c r="BO2" s="0"/>
+      <c r="BP2" s="0"/>
+      <c r="BQ2" s="0"/>
+      <c r="BR2" s="0"/>
+      <c r="BS2" s="0"/>
+      <c r="BT2" s="0"/>
+      <c r="BU2" s="0"/>
+      <c r="BV2" s="0"/>
+      <c r="BW2" s="0"/>
+      <c r="BX2" s="0"/>
+      <c r="BY2" s="0"/>
+      <c r="BZ2" s="0"/>
+      <c r="CA2" s="0"/>
+      <c r="CB2" s="0"/>
+      <c r="CC2" s="0"/>
+      <c r="CD2" s="0"/>
+      <c r="CE2" s="0"/>
+      <c r="CF2" s="0"/>
+      <c r="CG2" s="0"/>
+      <c r="CH2" s="0"/>
+      <c r="CI2" s="0"/>
+      <c r="CJ2" s="0"/>
+      <c r="CK2" s="0"/>
+      <c r="CL2" s="0"/>
+      <c r="CM2" s="0"/>
+      <c r="CN2" s="0"/>
+      <c r="CO2" s="0"/>
+      <c r="CP2" s="0"/>
+      <c r="CQ2" s="0"/>
+      <c r="CR2" s="0"/>
+      <c r="CS2" s="0"/>
+      <c r="CT2" s="0"/>
+      <c r="CU2" s="0"/>
+      <c r="CV2" s="0"/>
+      <c r="CW2" s="0"/>
+      <c r="CX2" s="0"/>
+      <c r="CY2" s="0"/>
+      <c r="CZ2" s="0"/>
+      <c r="DA2" s="0"/>
+      <c r="DB2" s="0"/>
+      <c r="DC2" s="0"/>
+      <c r="DD2" s="0"/>
+      <c r="DE2" s="0"/>
+      <c r="DF2" s="0"/>
+      <c r="DG2" s="0"/>
+      <c r="DH2" s="0"/>
+      <c r="DI2" s="0"/>
+      <c r="DJ2" s="0"/>
+      <c r="DK2" s="0"/>
+      <c r="DL2" s="0"/>
+      <c r="DM2" s="0"/>
+      <c r="DN2" s="0"/>
+      <c r="DO2" s="0"/>
+      <c r="DP2" s="0"/>
+      <c r="DQ2" s="0"/>
+      <c r="DR2" s="0"/>
+      <c r="DS2" s="0"/>
+      <c r="DT2" s="0"/>
+      <c r="DU2" s="0"/>
+      <c r="DV2" s="0"/>
+      <c r="DW2" s="0"/>
+      <c r="DX2" s="0"/>
+      <c r="DY2" s="0"/>
+      <c r="DZ2" s="0"/>
+      <c r="EA2" s="0"/>
+      <c r="EB2" s="0"/>
+      <c r="EC2" s="0"/>
+      <c r="ED2" s="0"/>
+      <c r="EE2" s="0"/>
+      <c r="EF2" s="0"/>
+      <c r="EG2" s="0"/>
+      <c r="EH2" s="0"/>
+      <c r="EI2" s="0"/>
+      <c r="EJ2" s="0"/>
+      <c r="EK2" s="0"/>
+      <c r="EL2" s="0"/>
+      <c r="EM2" s="0"/>
+      <c r="EN2" s="0"/>
+      <c r="EO2" s="0"/>
+      <c r="EP2" s="0"/>
+      <c r="EQ2" s="0"/>
+      <c r="ER2" s="0"/>
+      <c r="ES2" s="0"/>
+      <c r="ET2" s="0"/>
+      <c r="EU2" s="0"/>
+      <c r="EV2" s="0"/>
+      <c r="EW2" s="0"/>
+      <c r="EX2" s="0"/>
+      <c r="EY2" s="0"/>
+      <c r="EZ2" s="0"/>
+      <c r="FA2" s="0"/>
+      <c r="FB2" s="0"/>
+      <c r="FC2" s="0"/>
+      <c r="FD2" s="0"/>
+      <c r="FE2" s="0"/>
+      <c r="FF2" s="0"/>
+      <c r="FG2" s="0"/>
+      <c r="FH2" s="0"/>
+      <c r="FI2" s="0"/>
+      <c r="FJ2" s="0"/>
+      <c r="FK2" s="0"/>
+      <c r="FL2" s="0"/>
+      <c r="FM2" s="0"/>
+      <c r="FN2" s="0"/>
+      <c r="FO2" s="0"/>
+      <c r="FP2" s="0"/>
+      <c r="FQ2" s="0"/>
+      <c r="FR2" s="0"/>
+      <c r="FS2" s="0"/>
+      <c r="FT2" s="0"/>
+      <c r="FU2" s="0"/>
+      <c r="FV2" s="0"/>
+      <c r="FW2" s="0"/>
+      <c r="FX2" s="0"/>
+      <c r="FY2" s="0"/>
+      <c r="FZ2" s="0"/>
+      <c r="GA2" s="0"/>
+      <c r="GB2" s="0"/>
+      <c r="GC2" s="0"/>
+      <c r="GD2" s="0"/>
+      <c r="GE2" s="0"/>
+      <c r="GF2" s="0"/>
+      <c r="GG2" s="0"/>
+      <c r="GH2" s="0"/>
+      <c r="GI2" s="0"/>
+      <c r="GJ2" s="0"/>
+      <c r="GK2" s="0"/>
+      <c r="GL2" s="0"/>
+      <c r="GM2" s="0"/>
+      <c r="GN2" s="0"/>
+      <c r="GO2" s="0"/>
+      <c r="GP2" s="0"/>
+      <c r="GQ2" s="0"/>
+      <c r="GR2" s="0"/>
+      <c r="GS2" s="0"/>
+      <c r="GT2" s="0"/>
+      <c r="GU2" s="0"/>
+      <c r="GV2" s="0"/>
+      <c r="GW2" s="0"/>
+      <c r="GX2" s="0"/>
+      <c r="GY2" s="0"/>
+      <c r="GZ2" s="0"/>
+      <c r="HA2" s="0"/>
+      <c r="HB2" s="0"/>
+      <c r="HC2" s="0"/>
+      <c r="HD2" s="0"/>
+      <c r="HE2" s="0"/>
+      <c r="HF2" s="0"/>
+      <c r="HG2" s="0"/>
+      <c r="HH2" s="0"/>
+      <c r="HI2" s="0"/>
+      <c r="HJ2" s="0"/>
+      <c r="HK2" s="0"/>
+      <c r="HL2" s="0"/>
+      <c r="HM2" s="0"/>
+      <c r="HN2" s="0"/>
+      <c r="HO2" s="0"/>
+      <c r="HP2" s="0"/>
+      <c r="HQ2" s="0"/>
+      <c r="HR2" s="0"/>
+      <c r="HS2" s="0"/>
+      <c r="HT2" s="0"/>
+      <c r="HU2" s="0"/>
+      <c r="HV2" s="0"/>
+      <c r="HW2" s="0"/>
+      <c r="HX2" s="0"/>
+      <c r="HY2" s="0"/>
+      <c r="HZ2" s="0"/>
+      <c r="IA2" s="0"/>
+      <c r="IB2" s="0"/>
+      <c r="IC2" s="0"/>
+      <c r="ID2" s="0"/>
+      <c r="IE2" s="0"/>
+      <c r="IF2" s="0"/>
+      <c r="IG2" s="0"/>
+      <c r="IH2" s="0"/>
+      <c r="II2" s="0"/>
+      <c r="IJ2" s="0"/>
+      <c r="IK2" s="0"/>
+      <c r="IL2" s="0"/>
+      <c r="IM2" s="0"/>
+      <c r="IN2" s="0"/>
+      <c r="IO2" s="0"/>
+      <c r="IP2" s="0"/>
+      <c r="IQ2" s="0"/>
+      <c r="IR2" s="0"/>
+      <c r="IS2" s="0"/>
+      <c r="IT2" s="0"/>
+      <c r="IU2" s="0"/>
+      <c r="IV2" s="0"/>
+      <c r="IW2" s="0"/>
+      <c r="IX2" s="0"/>
+      <c r="IY2" s="0"/>
+      <c r="IZ2" s="0"/>
+      <c r="JA2" s="0"/>
+      <c r="JB2" s="0"/>
+      <c r="JC2" s="0"/>
+      <c r="JD2" s="0"/>
+      <c r="JE2" s="0"/>
+      <c r="JF2" s="0"/>
+      <c r="JG2" s="0"/>
+      <c r="JH2" s="0"/>
+      <c r="JI2" s="0"/>
+      <c r="JJ2" s="0"/>
+      <c r="JK2" s="0"/>
+      <c r="JL2" s="0"/>
+      <c r="JM2" s="0"/>
+      <c r="JN2" s="0"/>
+      <c r="JO2" s="0"/>
+      <c r="JP2" s="0"/>
+      <c r="JQ2" s="0"/>
+      <c r="JR2" s="0"/>
+      <c r="JS2" s="0"/>
+      <c r="JT2" s="0"/>
+      <c r="JU2" s="0"/>
+      <c r="JV2" s="0"/>
+      <c r="JW2" s="0"/>
+      <c r="JX2" s="0"/>
+      <c r="JY2" s="0"/>
+      <c r="JZ2" s="0"/>
+      <c r="KA2" s="0"/>
+      <c r="KB2" s="0"/>
+      <c r="KC2" s="0"/>
+      <c r="KD2" s="0"/>
+      <c r="KE2" s="0"/>
+      <c r="KF2" s="0"/>
+      <c r="KG2" s="0"/>
+      <c r="KH2" s="0"/>
+      <c r="KI2" s="0"/>
+      <c r="KJ2" s="0"/>
+      <c r="KK2" s="0"/>
+      <c r="KL2" s="0"/>
+      <c r="KM2" s="0"/>
+      <c r="KN2" s="0"/>
+      <c r="KO2" s="0"/>
+      <c r="KP2" s="0"/>
+      <c r="KQ2" s="0"/>
+      <c r="KR2" s="0"/>
+      <c r="KS2" s="0"/>
+      <c r="KT2" s="0"/>
+      <c r="KU2" s="0"/>
+      <c r="KV2" s="0"/>
+      <c r="KW2" s="0"/>
+      <c r="KX2" s="0"/>
+      <c r="KY2" s="0"/>
+      <c r="KZ2" s="0"/>
+      <c r="LA2" s="0"/>
+      <c r="LB2" s="0"/>
+      <c r="LC2" s="0"/>
+      <c r="LD2" s="0"/>
+      <c r="LE2" s="0"/>
+      <c r="LF2" s="0"/>
+      <c r="LG2" s="0"/>
+      <c r="LH2" s="0"/>
+      <c r="LI2" s="0"/>
+      <c r="LJ2" s="0"/>
+      <c r="LK2" s="0"/>
+      <c r="LL2" s="0"/>
+      <c r="LM2" s="0"/>
+      <c r="LN2" s="0"/>
+      <c r="LO2" s="0"/>
+      <c r="LP2" s="0"/>
+      <c r="LQ2" s="0"/>
+      <c r="LR2" s="0"/>
+      <c r="LS2" s="0"/>
+      <c r="LT2" s="0"/>
+      <c r="LU2" s="0"/>
+      <c r="LV2" s="0"/>
+      <c r="LW2" s="0"/>
+      <c r="LX2" s="0"/>
+      <c r="LY2" s="0"/>
+      <c r="LZ2" s="0"/>
+      <c r="MA2" s="0"/>
+      <c r="MB2" s="0"/>
+      <c r="MC2" s="0"/>
+      <c r="MD2" s="0"/>
+      <c r="ME2" s="0"/>
+      <c r="MF2" s="0"/>
+      <c r="MG2" s="0"/>
+      <c r="MH2" s="0"/>
+      <c r="MI2" s="0"/>
+      <c r="MJ2" s="0"/>
+      <c r="MK2" s="0"/>
+      <c r="ML2" s="0"/>
+      <c r="MM2" s="0"/>
+      <c r="MN2" s="0"/>
+      <c r="MO2" s="0"/>
+      <c r="MP2" s="0"/>
+      <c r="MQ2" s="0"/>
+      <c r="MR2" s="0"/>
+      <c r="MS2" s="0"/>
+      <c r="MT2" s="0"/>
+      <c r="MU2" s="0"/>
+      <c r="MV2" s="0"/>
+      <c r="MW2" s="0"/>
+      <c r="MX2" s="0"/>
+      <c r="MY2" s="0"/>
+      <c r="MZ2" s="0"/>
+      <c r="NA2" s="0"/>
+      <c r="NB2" s="0"/>
+      <c r="NC2" s="0"/>
+      <c r="ND2" s="0"/>
+      <c r="NE2" s="0"/>
+      <c r="NF2" s="0"/>
+      <c r="NG2" s="0"/>
+      <c r="NH2" s="0"/>
+      <c r="NI2" s="0"/>
+      <c r="NJ2" s="0"/>
+      <c r="NK2" s="0"/>
+      <c r="NL2" s="0"/>
+      <c r="NM2" s="0"/>
+      <c r="NN2" s="0"/>
+      <c r="NO2" s="0"/>
+      <c r="NP2" s="0"/>
+      <c r="NQ2" s="0"/>
+      <c r="NR2" s="0"/>
+      <c r="NS2" s="0"/>
+      <c r="NT2" s="0"/>
+      <c r="NU2" s="0"/>
+      <c r="NV2" s="0"/>
+      <c r="NW2" s="0"/>
+      <c r="NX2" s="0"/>
+      <c r="NY2" s="0"/>
+      <c r="NZ2" s="0"/>
+      <c r="OA2" s="0"/>
+      <c r="OB2" s="0"/>
+      <c r="OC2" s="0"/>
+      <c r="OD2" s="0"/>
+      <c r="OE2" s="0"/>
+      <c r="OF2" s="0"/>
+      <c r="OG2" s="0"/>
+      <c r="OH2" s="0"/>
+      <c r="OI2" s="0"/>
+      <c r="OJ2" s="0"/>
+      <c r="OK2" s="0"/>
+      <c r="OL2" s="0"/>
+      <c r="OM2" s="0"/>
+      <c r="ON2" s="0"/>
+      <c r="OO2" s="0"/>
+      <c r="OP2" s="0"/>
+      <c r="OQ2" s="0"/>
+      <c r="OR2" s="0"/>
+      <c r="OS2" s="0"/>
+      <c r="OT2" s="0"/>
+      <c r="OU2" s="0"/>
+      <c r="OV2" s="0"/>
+      <c r="OW2" s="0"/>
+      <c r="OX2" s="0"/>
+      <c r="OY2" s="0"/>
+      <c r="OZ2" s="0"/>
+      <c r="PA2" s="0"/>
+      <c r="PB2" s="0"/>
+      <c r="PC2" s="0"/>
+      <c r="PD2" s="0"/>
+      <c r="PE2" s="0"/>
+      <c r="PF2" s="0"/>
+      <c r="PG2" s="0"/>
+      <c r="PH2" s="0"/>
+      <c r="PI2" s="0"/>
+      <c r="PJ2" s="0"/>
+      <c r="PK2" s="0"/>
+      <c r="PL2" s="0"/>
+      <c r="PM2" s="0"/>
+      <c r="PN2" s="0"/>
+      <c r="PO2" s="0"/>
+      <c r="PP2" s="0"/>
+      <c r="PQ2" s="0"/>
+      <c r="PR2" s="0"/>
+      <c r="PS2" s="0"/>
+      <c r="PT2" s="0"/>
+      <c r="PU2" s="0"/>
+      <c r="PV2" s="0"/>
+      <c r="PW2" s="0"/>
+      <c r="PX2" s="0"/>
+      <c r="PY2" s="0"/>
+      <c r="PZ2" s="0"/>
+      <c r="QA2" s="0"/>
+      <c r="QB2" s="0"/>
+      <c r="QC2" s="0"/>
+      <c r="QD2" s="0"/>
+      <c r="QE2" s="0"/>
+      <c r="QF2" s="0"/>
+      <c r="QG2" s="0"/>
+      <c r="QH2" s="0"/>
+      <c r="QI2" s="0"/>
+      <c r="QJ2" s="0"/>
+      <c r="QK2" s="0"/>
+      <c r="QL2" s="0"/>
+      <c r="QM2" s="0"/>
+      <c r="QN2" s="0"/>
+      <c r="QO2" s="0"/>
+      <c r="QP2" s="0"/>
+      <c r="QQ2" s="0"/>
+      <c r="QR2" s="0"/>
+      <c r="QS2" s="0"/>
+      <c r="QT2" s="0"/>
+      <c r="QU2" s="0"/>
+      <c r="QV2" s="0"/>
+      <c r="QW2" s="0"/>
+      <c r="QX2" s="0"/>
+      <c r="QY2" s="0"/>
+      <c r="QZ2" s="0"/>
+      <c r="RA2" s="0"/>
+      <c r="RB2" s="0"/>
+      <c r="RC2" s="0"/>
+      <c r="RD2" s="0"/>
+      <c r="RE2" s="0"/>
+      <c r="RF2" s="0"/>
+      <c r="RG2" s="0"/>
+      <c r="RH2" s="0"/>
+      <c r="RI2" s="0"/>
+      <c r="RJ2" s="0"/>
+      <c r="RK2" s="0"/>
+      <c r="RL2" s="0"/>
+      <c r="RM2" s="0"/>
+      <c r="RN2" s="0"/>
+      <c r="RO2" s="0"/>
+      <c r="RP2" s="0"/>
+      <c r="RQ2" s="0"/>
+      <c r="RR2" s="0"/>
+      <c r="RS2" s="0"/>
+      <c r="RT2" s="0"/>
+      <c r="RU2" s="0"/>
+      <c r="RV2" s="0"/>
+      <c r="RW2" s="0"/>
+      <c r="RX2" s="0"/>
+      <c r="RY2" s="0"/>
+      <c r="RZ2" s="0"/>
+      <c r="SA2" s="0"/>
+      <c r="SB2" s="0"/>
+      <c r="SC2" s="0"/>
+      <c r="SD2" s="0"/>
+      <c r="SE2" s="0"/>
+      <c r="SF2" s="0"/>
+      <c r="SG2" s="0"/>
+      <c r="SH2" s="0"/>
+      <c r="SI2" s="0"/>
+      <c r="SJ2" s="0"/>
+      <c r="SK2" s="0"/>
+      <c r="SL2" s="0"/>
+      <c r="SM2" s="0"/>
+      <c r="SN2" s="0"/>
+      <c r="SO2" s="0"/>
+      <c r="SP2" s="0"/>
+      <c r="SQ2" s="0"/>
+      <c r="SR2" s="0"/>
+      <c r="SS2" s="0"/>
+      <c r="ST2" s="0"/>
+      <c r="SU2" s="0"/>
+      <c r="SV2" s="0"/>
+      <c r="SW2" s="0"/>
+      <c r="SX2" s="0"/>
+      <c r="SY2" s="0"/>
+      <c r="SZ2" s="0"/>
+      <c r="TA2" s="0"/>
+      <c r="TB2" s="0"/>
+      <c r="TC2" s="0"/>
+      <c r="TD2" s="0"/>
+      <c r="TE2" s="0"/>
+      <c r="TF2" s="0"/>
+      <c r="TG2" s="0"/>
+      <c r="TH2" s="0"/>
+      <c r="TI2" s="0"/>
+      <c r="TJ2" s="0"/>
+      <c r="TK2" s="0"/>
+      <c r="TL2" s="0"/>
+      <c r="TM2" s="0"/>
+      <c r="TN2" s="0"/>
+      <c r="TO2" s="0"/>
+      <c r="TP2" s="0"/>
+      <c r="TQ2" s="0"/>
+      <c r="TR2" s="0"/>
+      <c r="TS2" s="0"/>
+      <c r="TT2" s="0"/>
+      <c r="TU2" s="0"/>
+      <c r="TV2" s="0"/>
+      <c r="TW2" s="0"/>
+      <c r="TX2" s="0"/>
+      <c r="TY2" s="0"/>
+      <c r="TZ2" s="0"/>
+      <c r="UA2" s="0"/>
+      <c r="UB2" s="0"/>
+      <c r="UC2" s="0"/>
+      <c r="UD2" s="0"/>
+      <c r="UE2" s="0"/>
+      <c r="UF2" s="0"/>
+      <c r="UG2" s="0"/>
+      <c r="UH2" s="0"/>
+      <c r="UI2" s="0"/>
+      <c r="UJ2" s="0"/>
+      <c r="UK2" s="0"/>
+      <c r="UL2" s="0"/>
+      <c r="UM2" s="0"/>
+      <c r="UN2" s="0"/>
+      <c r="UO2" s="0"/>
+      <c r="UP2" s="0"/>
+      <c r="UQ2" s="0"/>
+      <c r="UR2" s="0"/>
+      <c r="US2" s="0"/>
+      <c r="UT2" s="0"/>
+      <c r="UU2" s="0"/>
+      <c r="UV2" s="0"/>
+      <c r="UW2" s="0"/>
+      <c r="UX2" s="0"/>
+      <c r="UY2" s="0"/>
+      <c r="UZ2" s="0"/>
+      <c r="VA2" s="0"/>
+      <c r="VB2" s="0"/>
+      <c r="VC2" s="0"/>
+      <c r="VD2" s="0"/>
+      <c r="VE2" s="0"/>
+      <c r="VF2" s="0"/>
+      <c r="VG2" s="0"/>
+      <c r="VH2" s="0"/>
+      <c r="VI2" s="0"/>
+      <c r="VJ2" s="0"/>
+      <c r="VK2" s="0"/>
+      <c r="VL2" s="0"/>
+      <c r="VM2" s="0"/>
+      <c r="VN2" s="0"/>
+      <c r="VO2" s="0"/>
+      <c r="VP2" s="0"/>
+      <c r="VQ2" s="0"/>
+      <c r="VR2" s="0"/>
+      <c r="VS2" s="0"/>
+      <c r="VT2" s="0"/>
+      <c r="VU2" s="0"/>
+      <c r="VV2" s="0"/>
+      <c r="VW2" s="0"/>
+      <c r="VX2" s="0"/>
+      <c r="VY2" s="0"/>
+      <c r="VZ2" s="0"/>
+      <c r="WA2" s="0"/>
+      <c r="WB2" s="0"/>
+      <c r="WC2" s="0"/>
+      <c r="WD2" s="0"/>
+      <c r="WE2" s="0"/>
+      <c r="WF2" s="0"/>
+      <c r="WG2" s="0"/>
+      <c r="WH2" s="0"/>
+      <c r="WI2" s="0"/>
+      <c r="WJ2" s="0"/>
+      <c r="WK2" s="0"/>
+      <c r="WL2" s="0"/>
+      <c r="WM2" s="0"/>
+      <c r="WN2" s="0"/>
+      <c r="WO2" s="0"/>
+      <c r="WP2" s="0"/>
+      <c r="WQ2" s="0"/>
+      <c r="WR2" s="0"/>
+      <c r="WS2" s="0"/>
+      <c r="WT2" s="0"/>
+      <c r="WU2" s="0"/>
+      <c r="WV2" s="0"/>
+      <c r="WW2" s="0"/>
+      <c r="WX2" s="0"/>
+      <c r="WY2" s="0"/>
+      <c r="WZ2" s="0"/>
+      <c r="XA2" s="0"/>
+      <c r="XB2" s="0"/>
+      <c r="XC2" s="0"/>
+      <c r="XD2" s="0"/>
+      <c r="XE2" s="0"/>
+      <c r="XF2" s="0"/>
+      <c r="XG2" s="0"/>
+      <c r="XH2" s="0"/>
+      <c r="XI2" s="0"/>
+      <c r="XJ2" s="0"/>
+      <c r="XK2" s="0"/>
+      <c r="XL2" s="0"/>
+      <c r="XM2" s="0"/>
+      <c r="XN2" s="0"/>
+      <c r="XO2" s="0"/>
+      <c r="XP2" s="0"/>
+      <c r="XQ2" s="0"/>
+      <c r="XR2" s="0"/>
+      <c r="XS2" s="0"/>
+      <c r="XT2" s="0"/>
+      <c r="XU2" s="0"/>
+      <c r="XV2" s="0"/>
+      <c r="XW2" s="0"/>
+      <c r="XX2" s="0"/>
+      <c r="XY2" s="0"/>
+      <c r="XZ2" s="0"/>
+      <c r="YA2" s="0"/>
+      <c r="YB2" s="0"/>
+      <c r="YC2" s="0"/>
+      <c r="YD2" s="0"/>
+      <c r="YE2" s="0"/>
+      <c r="YF2" s="0"/>
+      <c r="YG2" s="0"/>
+      <c r="YH2" s="0"/>
+      <c r="YI2" s="0"/>
+      <c r="YJ2" s="0"/>
+      <c r="YK2" s="0"/>
+      <c r="YL2" s="0"/>
+      <c r="YM2" s="0"/>
+      <c r="YN2" s="0"/>
+      <c r="YO2" s="0"/>
+      <c r="YP2" s="0"/>
+      <c r="YQ2" s="0"/>
+      <c r="YR2" s="0"/>
+      <c r="YS2" s="0"/>
+      <c r="YT2" s="0"/>
+      <c r="YU2" s="0"/>
+      <c r="YV2" s="0"/>
+      <c r="YW2" s="0"/>
+      <c r="YX2" s="0"/>
+      <c r="YY2" s="0"/>
+      <c r="YZ2" s="0"/>
+      <c r="ZA2" s="0"/>
+      <c r="ZB2" s="0"/>
+      <c r="ZC2" s="0"/>
+      <c r="ZD2" s="0"/>
+      <c r="ZE2" s="0"/>
+      <c r="ZF2" s="0"/>
+      <c r="ZG2" s="0"/>
+      <c r="ZH2" s="0"/>
+      <c r="ZI2" s="0"/>
+      <c r="ZJ2" s="0"/>
+      <c r="ZK2" s="0"/>
+      <c r="ZL2" s="0"/>
+      <c r="ZM2" s="0"/>
+      <c r="ZN2" s="0"/>
+      <c r="ZO2" s="0"/>
+      <c r="ZP2" s="0"/>
+      <c r="ZQ2" s="0"/>
+      <c r="ZR2" s="0"/>
+      <c r="ZS2" s="0"/>
+      <c r="ZT2" s="0"/>
+      <c r="ZU2" s="0"/>
+      <c r="ZV2" s="0"/>
+      <c r="ZW2" s="0"/>
+      <c r="ZX2" s="0"/>
+      <c r="ZY2" s="0"/>
+      <c r="ZZ2" s="0"/>
+      <c r="AAA2" s="0"/>
+      <c r="AAB2" s="0"/>
+      <c r="AAC2" s="0"/>
+      <c r="AAD2" s="0"/>
+      <c r="AAE2" s="0"/>
+      <c r="AAF2" s="0"/>
+      <c r="AAG2" s="0"/>
+      <c r="AAH2" s="0"/>
+      <c r="AAI2" s="0"/>
+      <c r="AAJ2" s="0"/>
+      <c r="AAK2" s="0"/>
+      <c r="AAL2" s="0"/>
+      <c r="AAM2" s="0"/>
+      <c r="AAN2" s="0"/>
+      <c r="AAO2" s="0"/>
+      <c r="AAP2" s="0"/>
+      <c r="AAQ2" s="0"/>
+      <c r="AAR2" s="0"/>
+      <c r="AAS2" s="0"/>
+      <c r="AAT2" s="0"/>
+      <c r="AAU2" s="0"/>
+      <c r="AAV2" s="0"/>
+      <c r="AAW2" s="0"/>
+      <c r="AAX2" s="0"/>
+      <c r="AAY2" s="0"/>
+      <c r="AAZ2" s="0"/>
+      <c r="ABA2" s="0"/>
+      <c r="ABB2" s="0"/>
+      <c r="ABC2" s="0"/>
+      <c r="ABD2" s="0"/>
+      <c r="ABE2" s="0"/>
+      <c r="ABF2" s="0"/>
+      <c r="ABG2" s="0"/>
+      <c r="ABH2" s="0"/>
+      <c r="ABI2" s="0"/>
+      <c r="ABJ2" s="0"/>
+      <c r="ABK2" s="0"/>
+      <c r="ABL2" s="0"/>
+      <c r="ABM2" s="0"/>
+      <c r="ABN2" s="0"/>
+      <c r="ABO2" s="0"/>
+      <c r="ABP2" s="0"/>
+      <c r="ABQ2" s="0"/>
+      <c r="ABR2" s="0"/>
+      <c r="ABS2" s="0"/>
+      <c r="ABT2" s="0"/>
+      <c r="ABU2" s="0"/>
+      <c r="ABV2" s="0"/>
+      <c r="ABW2" s="0"/>
+      <c r="ABX2" s="0"/>
+      <c r="ABY2" s="0"/>
+      <c r="ABZ2" s="0"/>
+      <c r="ACA2" s="0"/>
+      <c r="ACB2" s="0"/>
+      <c r="ACC2" s="0"/>
+      <c r="ACD2" s="0"/>
+      <c r="ACE2" s="0"/>
+      <c r="ACF2" s="0"/>
+      <c r="ACG2" s="0"/>
+      <c r="ACH2" s="0"/>
+      <c r="ACI2" s="0"/>
+      <c r="ACJ2" s="0"/>
+      <c r="ACK2" s="0"/>
+      <c r="ACL2" s="0"/>
+      <c r="ACM2" s="0"/>
+      <c r="ACN2" s="0"/>
+      <c r="ACO2" s="0"/>
+      <c r="ACP2" s="0"/>
+      <c r="ACQ2" s="0"/>
+      <c r="ACR2" s="0"/>
+      <c r="ACS2" s="0"/>
+      <c r="ACT2" s="0"/>
+      <c r="ACU2" s="0"/>
+      <c r="ACV2" s="0"/>
+      <c r="ACW2" s="0"/>
+      <c r="ACX2" s="0"/>
+      <c r="ACY2" s="0"/>
+      <c r="ACZ2" s="0"/>
+      <c r="ADA2" s="0"/>
+      <c r="ADB2" s="0"/>
+      <c r="ADC2" s="0"/>
+      <c r="ADD2" s="0"/>
+      <c r="ADE2" s="0"/>
+      <c r="ADF2" s="0"/>
+      <c r="ADG2" s="0"/>
+      <c r="ADH2" s="0"/>
+      <c r="ADI2" s="0"/>
+      <c r="ADJ2" s="0"/>
+      <c r="ADK2" s="0"/>
+      <c r="ADL2" s="0"/>
+      <c r="ADM2" s="0"/>
+      <c r="ADN2" s="0"/>
+      <c r="ADO2" s="0"/>
+      <c r="ADP2" s="0"/>
+      <c r="ADQ2" s="0"/>
+      <c r="ADR2" s="0"/>
+      <c r="ADS2" s="0"/>
+      <c r="ADT2" s="0"/>
+      <c r="ADU2" s="0"/>
+      <c r="ADV2" s="0"/>
+      <c r="ADW2" s="0"/>
+      <c r="ADX2" s="0"/>
+      <c r="ADY2" s="0"/>
+      <c r="ADZ2" s="0"/>
+      <c r="AEA2" s="0"/>
+      <c r="AEB2" s="0"/>
+      <c r="AEC2" s="0"/>
+      <c r="AED2" s="0"/>
+      <c r="AEE2" s="0"/>
+      <c r="AEF2" s="0"/>
+      <c r="AEG2" s="0"/>
+      <c r="AEH2" s="0"/>
+      <c r="AEI2" s="0"/>
+      <c r="AEJ2" s="0"/>
+      <c r="AEK2" s="0"/>
+      <c r="AEL2" s="0"/>
+      <c r="AEM2" s="0"/>
+      <c r="AEN2" s="0"/>
+      <c r="AEO2" s="0"/>
+      <c r="AEP2" s="0"/>
+      <c r="AEQ2" s="0"/>
+      <c r="AER2" s="0"/>
+      <c r="AES2" s="0"/>
+      <c r="AET2" s="0"/>
+      <c r="AEU2" s="0"/>
+      <c r="AEV2" s="0"/>
+      <c r="AEW2" s="0"/>
+      <c r="AEX2" s="0"/>
+      <c r="AEY2" s="0"/>
+      <c r="AEZ2" s="0"/>
+      <c r="AFA2" s="0"/>
+      <c r="AFB2" s="0"/>
+      <c r="AFC2" s="0"/>
+      <c r="AFD2" s="0"/>
+      <c r="AFE2" s="0"/>
+      <c r="AFF2" s="0"/>
+      <c r="AFG2" s="0"/>
+      <c r="AFH2" s="0"/>
+      <c r="AFI2" s="0"/>
+      <c r="AFJ2" s="0"/>
+      <c r="AFK2" s="0"/>
+      <c r="AFL2" s="0"/>
+      <c r="AFM2" s="0"/>
+      <c r="AFN2" s="0"/>
+      <c r="AFO2" s="0"/>
+      <c r="AFP2" s="0"/>
+      <c r="AFQ2" s="0"/>
+      <c r="AFR2" s="0"/>
+      <c r="AFS2" s="0"/>
+      <c r="AFT2" s="0"/>
+      <c r="AFU2" s="0"/>
+      <c r="AFV2" s="0"/>
+      <c r="AFW2" s="0"/>
+      <c r="AFX2" s="0"/>
+      <c r="AFY2" s="0"/>
+      <c r="AFZ2" s="0"/>
+      <c r="AGA2" s="0"/>
+      <c r="AGB2" s="0"/>
+      <c r="AGC2" s="0"/>
+      <c r="AGD2" s="0"/>
+      <c r="AGE2" s="0"/>
+      <c r="AGF2" s="0"/>
+      <c r="AGG2" s="0"/>
+      <c r="AGH2" s="0"/>
+      <c r="AGI2" s="0"/>
+      <c r="AGJ2" s="0"/>
+      <c r="AGK2" s="0"/>
+      <c r="AGL2" s="0"/>
+      <c r="AGM2" s="0"/>
+      <c r="AGN2" s="0"/>
+      <c r="AGO2" s="0"/>
+      <c r="AGP2" s="0"/>
+      <c r="AGQ2" s="0"/>
+      <c r="AGR2" s="0"/>
+      <c r="AGS2" s="0"/>
+      <c r="AGT2" s="0"/>
+      <c r="AGU2" s="0"/>
+      <c r="AGV2" s="0"/>
+      <c r="AGW2" s="0"/>
+      <c r="AGX2" s="0"/>
+      <c r="AGY2" s="0"/>
+      <c r="AGZ2" s="0"/>
+      <c r="AHA2" s="0"/>
+      <c r="AHB2" s="0"/>
+      <c r="AHC2" s="0"/>
+      <c r="AHD2" s="0"/>
+      <c r="AHE2" s="0"/>
+      <c r="AHF2" s="0"/>
+      <c r="AHG2" s="0"/>
+      <c r="AHH2" s="0"/>
+      <c r="AHI2" s="0"/>
+      <c r="AHJ2" s="0"/>
+      <c r="AHK2" s="0"/>
+      <c r="AHL2" s="0"/>
+      <c r="AHM2" s="0"/>
+      <c r="AHN2" s="0"/>
+      <c r="AHO2" s="0"/>
+      <c r="AHP2" s="0"/>
+      <c r="AHQ2" s="0"/>
+      <c r="AHR2" s="0"/>
+      <c r="AHS2" s="0"/>
+      <c r="AHT2" s="0"/>
+      <c r="AHU2" s="0"/>
+      <c r="AHV2" s="0"/>
+      <c r="AHW2" s="0"/>
+      <c r="AHX2" s="0"/>
+      <c r="AHY2" s="0"/>
+      <c r="AHZ2" s="0"/>
+      <c r="AIA2" s="0"/>
+      <c r="AIB2" s="0"/>
+      <c r="AIC2" s="0"/>
+      <c r="AID2" s="0"/>
+      <c r="AIE2" s="0"/>
+      <c r="AIF2" s="0"/>
+      <c r="AIG2" s="0"/>
+      <c r="AIH2" s="0"/>
+      <c r="AII2" s="0"/>
+      <c r="AIJ2" s="0"/>
+      <c r="AIK2" s="0"/>
+      <c r="AIL2" s="0"/>
+      <c r="AIM2" s="0"/>
+      <c r="AIN2" s="0"/>
+      <c r="AIO2" s="0"/>
+      <c r="AIP2" s="0"/>
+      <c r="AIQ2" s="0"/>
+      <c r="AIR2" s="0"/>
+      <c r="AIS2" s="0"/>
+      <c r="AIT2" s="0"/>
+      <c r="AIU2" s="0"/>
+      <c r="AIV2" s="0"/>
+      <c r="AIW2" s="0"/>
+      <c r="AIX2" s="0"/>
+      <c r="AIY2" s="0"/>
+      <c r="AIZ2" s="0"/>
+      <c r="AJA2" s="0"/>
+      <c r="AJB2" s="0"/>
+      <c r="AJC2" s="0"/>
+      <c r="AJD2" s="0"/>
+      <c r="AJE2" s="0"/>
+      <c r="AJF2" s="0"/>
+      <c r="AJG2" s="0"/>
+      <c r="AJH2" s="0"/>
+      <c r="AJI2" s="0"/>
+      <c r="AJJ2" s="0"/>
+      <c r="AJK2" s="0"/>
+      <c r="AJL2" s="0"/>
+      <c r="AJM2" s="0"/>
+      <c r="AJN2" s="0"/>
+      <c r="AJO2" s="0"/>
+      <c r="AJP2" s="0"/>
+      <c r="AJQ2" s="0"/>
+      <c r="AJR2" s="0"/>
+      <c r="AJS2" s="0"/>
+      <c r="AJT2" s="0"/>
+      <c r="AJU2" s="0"/>
+      <c r="AJV2" s="0"/>
+      <c r="AJW2" s="0"/>
+      <c r="AJX2" s="0"/>
+      <c r="AJY2" s="0"/>
+      <c r="AJZ2" s="0"/>
+      <c r="AKA2" s="0"/>
+      <c r="AKB2" s="0"/>
+      <c r="AKC2" s="0"/>
+      <c r="AKD2" s="0"/>
+      <c r="AKE2" s="0"/>
+      <c r="AKF2" s="0"/>
+      <c r="AKG2" s="0"/>
+      <c r="AKH2" s="0"/>
+      <c r="AKI2" s="0"/>
+      <c r="AKJ2" s="0"/>
+      <c r="AKK2" s="0"/>
+      <c r="AKL2" s="0"/>
+      <c r="AKM2" s="0"/>
+      <c r="AKN2" s="0"/>
+      <c r="AKO2" s="0"/>
+      <c r="AKP2" s="0"/>
+      <c r="AKQ2" s="0"/>
+      <c r="AKR2" s="0"/>
+      <c r="AKS2" s="0"/>
+      <c r="AKT2" s="0"/>
+      <c r="AKU2" s="0"/>
+      <c r="AKV2" s="0"/>
+      <c r="AKW2" s="0"/>
+      <c r="AKX2" s="0"/>
+      <c r="AKY2" s="0"/>
+      <c r="AKZ2" s="0"/>
+      <c r="ALA2" s="0"/>
+      <c r="ALB2" s="0"/>
+      <c r="ALC2" s="0"/>
+      <c r="ALD2" s="0"/>
+      <c r="ALE2" s="0"/>
+      <c r="ALF2" s="0"/>
+      <c r="ALG2" s="0"/>
+      <c r="ALH2" s="0"/>
+      <c r="ALI2" s="0"/>
+      <c r="ALJ2" s="0"/>
+      <c r="ALK2" s="0"/>
+      <c r="ALL2" s="0"/>
+      <c r="ALM2" s="0"/>
+      <c r="ALN2" s="0"/>
+      <c r="ALO2" s="0"/>
+      <c r="ALP2" s="0"/>
+      <c r="ALQ2" s="0"/>
+      <c r="ALR2" s="0"/>
+      <c r="ALS2" s="0"/>
+      <c r="ALT2" s="0"/>
+      <c r="ALU2" s="0"/>
+      <c r="ALV2" s="0"/>
+      <c r="ALW2" s="0"/>
+      <c r="ALX2" s="0"/>
+      <c r="ALY2" s="0"/>
+      <c r="ALZ2" s="0"/>
+      <c r="AMA2" s="0"/>
+      <c r="AMB2" s="0"/>
+      <c r="AMC2" s="0"/>
+      <c r="AMD2" s="0"/>
+      <c r="AME2" s="0"/>
+      <c r="AMF2" s="0"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
     </row>
     <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7"/>
@@ -531,6 +1545,1020 @@
       <c r="I4" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
+      <c r="R4" s="0"/>
+      <c r="S4" s="0"/>
+      <c r="T4" s="0"/>
+      <c r="U4" s="0"/>
+      <c r="V4" s="0"/>
+      <c r="W4" s="0"/>
+      <c r="X4" s="0"/>
+      <c r="Y4" s="0"/>
+      <c r="Z4" s="0"/>
+      <c r="AA4" s="0"/>
+      <c r="AB4" s="0"/>
+      <c r="AC4" s="0"/>
+      <c r="AD4" s="0"/>
+      <c r="AE4" s="0"/>
+      <c r="AF4" s="0"/>
+      <c r="AG4" s="0"/>
+      <c r="AH4" s="0"/>
+      <c r="AI4" s="0"/>
+      <c r="AJ4" s="0"/>
+      <c r="AK4" s="0"/>
+      <c r="AL4" s="0"/>
+      <c r="AM4" s="0"/>
+      <c r="AN4" s="0"/>
+      <c r="AO4" s="0"/>
+      <c r="AP4" s="0"/>
+      <c r="AQ4" s="0"/>
+      <c r="AR4" s="0"/>
+      <c r="AS4" s="0"/>
+      <c r="AT4" s="0"/>
+      <c r="AU4" s="0"/>
+      <c r="AV4" s="0"/>
+      <c r="AW4" s="0"/>
+      <c r="AX4" s="0"/>
+      <c r="AY4" s="0"/>
+      <c r="AZ4" s="0"/>
+      <c r="BA4" s="0"/>
+      <c r="BB4" s="0"/>
+      <c r="BC4" s="0"/>
+      <c r="BD4" s="0"/>
+      <c r="BE4" s="0"/>
+      <c r="BF4" s="0"/>
+      <c r="BG4" s="0"/>
+      <c r="BH4" s="0"/>
+      <c r="BI4" s="0"/>
+      <c r="BJ4" s="0"/>
+      <c r="BK4" s="0"/>
+      <c r="BL4" s="0"/>
+      <c r="BM4" s="0"/>
+      <c r="BN4" s="0"/>
+      <c r="BO4" s="0"/>
+      <c r="BP4" s="0"/>
+      <c r="BQ4" s="0"/>
+      <c r="BR4" s="0"/>
+      <c r="BS4" s="0"/>
+      <c r="BT4" s="0"/>
+      <c r="BU4" s="0"/>
+      <c r="BV4" s="0"/>
+      <c r="BW4" s="0"/>
+      <c r="BX4" s="0"/>
+      <c r="BY4" s="0"/>
+      <c r="BZ4" s="0"/>
+      <c r="CA4" s="0"/>
+      <c r="CB4" s="0"/>
+      <c r="CC4" s="0"/>
+      <c r="CD4" s="0"/>
+      <c r="CE4" s="0"/>
+      <c r="CF4" s="0"/>
+      <c r="CG4" s="0"/>
+      <c r="CH4" s="0"/>
+      <c r="CI4" s="0"/>
+      <c r="CJ4" s="0"/>
+      <c r="CK4" s="0"/>
+      <c r="CL4" s="0"/>
+      <c r="CM4" s="0"/>
+      <c r="CN4" s="0"/>
+      <c r="CO4" s="0"/>
+      <c r="CP4" s="0"/>
+      <c r="CQ4" s="0"/>
+      <c r="CR4" s="0"/>
+      <c r="CS4" s="0"/>
+      <c r="CT4" s="0"/>
+      <c r="CU4" s="0"/>
+      <c r="CV4" s="0"/>
+      <c r="CW4" s="0"/>
+      <c r="CX4" s="0"/>
+      <c r="CY4" s="0"/>
+      <c r="CZ4" s="0"/>
+      <c r="DA4" s="0"/>
+      <c r="DB4" s="0"/>
+      <c r="DC4" s="0"/>
+      <c r="DD4" s="0"/>
+      <c r="DE4" s="0"/>
+      <c r="DF4" s="0"/>
+      <c r="DG4" s="0"/>
+      <c r="DH4" s="0"/>
+      <c r="DI4" s="0"/>
+      <c r="DJ4" s="0"/>
+      <c r="DK4" s="0"/>
+      <c r="DL4" s="0"/>
+      <c r="DM4" s="0"/>
+      <c r="DN4" s="0"/>
+      <c r="DO4" s="0"/>
+      <c r="DP4" s="0"/>
+      <c r="DQ4" s="0"/>
+      <c r="DR4" s="0"/>
+      <c r="DS4" s="0"/>
+      <c r="DT4" s="0"/>
+      <c r="DU4" s="0"/>
+      <c r="DV4" s="0"/>
+      <c r="DW4" s="0"/>
+      <c r="DX4" s="0"/>
+      <c r="DY4" s="0"/>
+      <c r="DZ4" s="0"/>
+      <c r="EA4" s="0"/>
+      <c r="EB4" s="0"/>
+      <c r="EC4" s="0"/>
+      <c r="ED4" s="0"/>
+      <c r="EE4" s="0"/>
+      <c r="EF4" s="0"/>
+      <c r="EG4" s="0"/>
+      <c r="EH4" s="0"/>
+      <c r="EI4" s="0"/>
+      <c r="EJ4" s="0"/>
+      <c r="EK4" s="0"/>
+      <c r="EL4" s="0"/>
+      <c r="EM4" s="0"/>
+      <c r="EN4" s="0"/>
+      <c r="EO4" s="0"/>
+      <c r="EP4" s="0"/>
+      <c r="EQ4" s="0"/>
+      <c r="ER4" s="0"/>
+      <c r="ES4" s="0"/>
+      <c r="ET4" s="0"/>
+      <c r="EU4" s="0"/>
+      <c r="EV4" s="0"/>
+      <c r="EW4" s="0"/>
+      <c r="EX4" s="0"/>
+      <c r="EY4" s="0"/>
+      <c r="EZ4" s="0"/>
+      <c r="FA4" s="0"/>
+      <c r="FB4" s="0"/>
+      <c r="FC4" s="0"/>
+      <c r="FD4" s="0"/>
+      <c r="FE4" s="0"/>
+      <c r="FF4" s="0"/>
+      <c r="FG4" s="0"/>
+      <c r="FH4" s="0"/>
+      <c r="FI4" s="0"/>
+      <c r="FJ4" s="0"/>
+      <c r="FK4" s="0"/>
+      <c r="FL4" s="0"/>
+      <c r="FM4" s="0"/>
+      <c r="FN4" s="0"/>
+      <c r="FO4" s="0"/>
+      <c r="FP4" s="0"/>
+      <c r="FQ4" s="0"/>
+      <c r="FR4" s="0"/>
+      <c r="FS4" s="0"/>
+      <c r="FT4" s="0"/>
+      <c r="FU4" s="0"/>
+      <c r="FV4" s="0"/>
+      <c r="FW4" s="0"/>
+      <c r="FX4" s="0"/>
+      <c r="FY4" s="0"/>
+      <c r="FZ4" s="0"/>
+      <c r="GA4" s="0"/>
+      <c r="GB4" s="0"/>
+      <c r="GC4" s="0"/>
+      <c r="GD4" s="0"/>
+      <c r="GE4" s="0"/>
+      <c r="GF4" s="0"/>
+      <c r="GG4" s="0"/>
+      <c r="GH4" s="0"/>
+      <c r="GI4" s="0"/>
+      <c r="GJ4" s="0"/>
+      <c r="GK4" s="0"/>
+      <c r="GL4" s="0"/>
+      <c r="GM4" s="0"/>
+      <c r="GN4" s="0"/>
+      <c r="GO4" s="0"/>
+      <c r="GP4" s="0"/>
+      <c r="GQ4" s="0"/>
+      <c r="GR4" s="0"/>
+      <c r="GS4" s="0"/>
+      <c r="GT4" s="0"/>
+      <c r="GU4" s="0"/>
+      <c r="GV4" s="0"/>
+      <c r="GW4" s="0"/>
+      <c r="GX4" s="0"/>
+      <c r="GY4" s="0"/>
+      <c r="GZ4" s="0"/>
+      <c r="HA4" s="0"/>
+      <c r="HB4" s="0"/>
+      <c r="HC4" s="0"/>
+      <c r="HD4" s="0"/>
+      <c r="HE4" s="0"/>
+      <c r="HF4" s="0"/>
+      <c r="HG4" s="0"/>
+      <c r="HH4" s="0"/>
+      <c r="HI4" s="0"/>
+      <c r="HJ4" s="0"/>
+      <c r="HK4" s="0"/>
+      <c r="HL4" s="0"/>
+      <c r="HM4" s="0"/>
+      <c r="HN4" s="0"/>
+      <c r="HO4" s="0"/>
+      <c r="HP4" s="0"/>
+      <c r="HQ4" s="0"/>
+      <c r="HR4" s="0"/>
+      <c r="HS4" s="0"/>
+      <c r="HT4" s="0"/>
+      <c r="HU4" s="0"/>
+      <c r="HV4" s="0"/>
+      <c r="HW4" s="0"/>
+      <c r="HX4" s="0"/>
+      <c r="HY4" s="0"/>
+      <c r="HZ4" s="0"/>
+      <c r="IA4" s="0"/>
+      <c r="IB4" s="0"/>
+      <c r="IC4" s="0"/>
+      <c r="ID4" s="0"/>
+      <c r="IE4" s="0"/>
+      <c r="IF4" s="0"/>
+      <c r="IG4" s="0"/>
+      <c r="IH4" s="0"/>
+      <c r="II4" s="0"/>
+      <c r="IJ4" s="0"/>
+      <c r="IK4" s="0"/>
+      <c r="IL4" s="0"/>
+      <c r="IM4" s="0"/>
+      <c r="IN4" s="0"/>
+      <c r="IO4" s="0"/>
+      <c r="IP4" s="0"/>
+      <c r="IQ4" s="0"/>
+      <c r="IR4" s="0"/>
+      <c r="IS4" s="0"/>
+      <c r="IT4" s="0"/>
+      <c r="IU4" s="0"/>
+      <c r="IV4" s="0"/>
+      <c r="IW4" s="0"/>
+      <c r="IX4" s="0"/>
+      <c r="IY4" s="0"/>
+      <c r="IZ4" s="0"/>
+      <c r="JA4" s="0"/>
+      <c r="JB4" s="0"/>
+      <c r="JC4" s="0"/>
+      <c r="JD4" s="0"/>
+      <c r="JE4" s="0"/>
+      <c r="JF4" s="0"/>
+      <c r="JG4" s="0"/>
+      <c r="JH4" s="0"/>
+      <c r="JI4" s="0"/>
+      <c r="JJ4" s="0"/>
+      <c r="JK4" s="0"/>
+      <c r="JL4" s="0"/>
+      <c r="JM4" s="0"/>
+      <c r="JN4" s="0"/>
+      <c r="JO4" s="0"/>
+      <c r="JP4" s="0"/>
+      <c r="JQ4" s="0"/>
+      <c r="JR4" s="0"/>
+      <c r="JS4" s="0"/>
+      <c r="JT4" s="0"/>
+      <c r="JU4" s="0"/>
+      <c r="JV4" s="0"/>
+      <c r="JW4" s="0"/>
+      <c r="JX4" s="0"/>
+      <c r="JY4" s="0"/>
+      <c r="JZ4" s="0"/>
+      <c r="KA4" s="0"/>
+      <c r="KB4" s="0"/>
+      <c r="KC4" s="0"/>
+      <c r="KD4" s="0"/>
+      <c r="KE4" s="0"/>
+      <c r="KF4" s="0"/>
+      <c r="KG4" s="0"/>
+      <c r="KH4" s="0"/>
+      <c r="KI4" s="0"/>
+      <c r="KJ4" s="0"/>
+      <c r="KK4" s="0"/>
+      <c r="KL4" s="0"/>
+      <c r="KM4" s="0"/>
+      <c r="KN4" s="0"/>
+      <c r="KO4" s="0"/>
+      <c r="KP4" s="0"/>
+      <c r="KQ4" s="0"/>
+      <c r="KR4" s="0"/>
+      <c r="KS4" s="0"/>
+      <c r="KT4" s="0"/>
+      <c r="KU4" s="0"/>
+      <c r="KV4" s="0"/>
+      <c r="KW4" s="0"/>
+      <c r="KX4" s="0"/>
+      <c r="KY4" s="0"/>
+      <c r="KZ4" s="0"/>
+      <c r="LA4" s="0"/>
+      <c r="LB4" s="0"/>
+      <c r="LC4" s="0"/>
+      <c r="LD4" s="0"/>
+      <c r="LE4" s="0"/>
+      <c r="LF4" s="0"/>
+      <c r="LG4" s="0"/>
+      <c r="LH4" s="0"/>
+      <c r="LI4" s="0"/>
+      <c r="LJ4" s="0"/>
+      <c r="LK4" s="0"/>
+      <c r="LL4" s="0"/>
+      <c r="LM4" s="0"/>
+      <c r="LN4" s="0"/>
+      <c r="LO4" s="0"/>
+      <c r="LP4" s="0"/>
+      <c r="LQ4" s="0"/>
+      <c r="LR4" s="0"/>
+      <c r="LS4" s="0"/>
+      <c r="LT4" s="0"/>
+      <c r="LU4" s="0"/>
+      <c r="LV4" s="0"/>
+      <c r="LW4" s="0"/>
+      <c r="LX4" s="0"/>
+      <c r="LY4" s="0"/>
+      <c r="LZ4" s="0"/>
+      <c r="MA4" s="0"/>
+      <c r="MB4" s="0"/>
+      <c r="MC4" s="0"/>
+      <c r="MD4" s="0"/>
+      <c r="ME4" s="0"/>
+      <c r="MF4" s="0"/>
+      <c r="MG4" s="0"/>
+      <c r="MH4" s="0"/>
+      <c r="MI4" s="0"/>
+      <c r="MJ4" s="0"/>
+      <c r="MK4" s="0"/>
+      <c r="ML4" s="0"/>
+      <c r="MM4" s="0"/>
+      <c r="MN4" s="0"/>
+      <c r="MO4" s="0"/>
+      <c r="MP4" s="0"/>
+      <c r="MQ4" s="0"/>
+      <c r="MR4" s="0"/>
+      <c r="MS4" s="0"/>
+      <c r="MT4" s="0"/>
+      <c r="MU4" s="0"/>
+      <c r="MV4" s="0"/>
+      <c r="MW4" s="0"/>
+      <c r="MX4" s="0"/>
+      <c r="MY4" s="0"/>
+      <c r="MZ4" s="0"/>
+      <c r="NA4" s="0"/>
+      <c r="NB4" s="0"/>
+      <c r="NC4" s="0"/>
+      <c r="ND4" s="0"/>
+      <c r="NE4" s="0"/>
+      <c r="NF4" s="0"/>
+      <c r="NG4" s="0"/>
+      <c r="NH4" s="0"/>
+      <c r="NI4" s="0"/>
+      <c r="NJ4" s="0"/>
+      <c r="NK4" s="0"/>
+      <c r="NL4" s="0"/>
+      <c r="NM4" s="0"/>
+      <c r="NN4" s="0"/>
+      <c r="NO4" s="0"/>
+      <c r="NP4" s="0"/>
+      <c r="NQ4" s="0"/>
+      <c r="NR4" s="0"/>
+      <c r="NS4" s="0"/>
+      <c r="NT4" s="0"/>
+      <c r="NU4" s="0"/>
+      <c r="NV4" s="0"/>
+      <c r="NW4" s="0"/>
+      <c r="NX4" s="0"/>
+      <c r="NY4" s="0"/>
+      <c r="NZ4" s="0"/>
+      <c r="OA4" s="0"/>
+      <c r="OB4" s="0"/>
+      <c r="OC4" s="0"/>
+      <c r="OD4" s="0"/>
+      <c r="OE4" s="0"/>
+      <c r="OF4" s="0"/>
+      <c r="OG4" s="0"/>
+      <c r="OH4" s="0"/>
+      <c r="OI4" s="0"/>
+      <c r="OJ4" s="0"/>
+      <c r="OK4" s="0"/>
+      <c r="OL4" s="0"/>
+      <c r="OM4" s="0"/>
+      <c r="ON4" s="0"/>
+      <c r="OO4" s="0"/>
+      <c r="OP4" s="0"/>
+      <c r="OQ4" s="0"/>
+      <c r="OR4" s="0"/>
+      <c r="OS4" s="0"/>
+      <c r="OT4" s="0"/>
+      <c r="OU4" s="0"/>
+      <c r="OV4" s="0"/>
+      <c r="OW4" s="0"/>
+      <c r="OX4" s="0"/>
+      <c r="OY4" s="0"/>
+      <c r="OZ4" s="0"/>
+      <c r="PA4" s="0"/>
+      <c r="PB4" s="0"/>
+      <c r="PC4" s="0"/>
+      <c r="PD4" s="0"/>
+      <c r="PE4" s="0"/>
+      <c r="PF4" s="0"/>
+      <c r="PG4" s="0"/>
+      <c r="PH4" s="0"/>
+      <c r="PI4" s="0"/>
+      <c r="PJ4" s="0"/>
+      <c r="PK4" s="0"/>
+      <c r="PL4" s="0"/>
+      <c r="PM4" s="0"/>
+      <c r="PN4" s="0"/>
+      <c r="PO4" s="0"/>
+      <c r="PP4" s="0"/>
+      <c r="PQ4" s="0"/>
+      <c r="PR4" s="0"/>
+      <c r="PS4" s="0"/>
+      <c r="PT4" s="0"/>
+      <c r="PU4" s="0"/>
+      <c r="PV4" s="0"/>
+      <c r="PW4" s="0"/>
+      <c r="PX4" s="0"/>
+      <c r="PY4" s="0"/>
+      <c r="PZ4" s="0"/>
+      <c r="QA4" s="0"/>
+      <c r="QB4" s="0"/>
+      <c r="QC4" s="0"/>
+      <c r="QD4" s="0"/>
+      <c r="QE4" s="0"/>
+      <c r="QF4" s="0"/>
+      <c r="QG4" s="0"/>
+      <c r="QH4" s="0"/>
+      <c r="QI4" s="0"/>
+      <c r="QJ4" s="0"/>
+      <c r="QK4" s="0"/>
+      <c r="QL4" s="0"/>
+      <c r="QM4" s="0"/>
+      <c r="QN4" s="0"/>
+      <c r="QO4" s="0"/>
+      <c r="QP4" s="0"/>
+      <c r="QQ4" s="0"/>
+      <c r="QR4" s="0"/>
+      <c r="QS4" s="0"/>
+      <c r="QT4" s="0"/>
+      <c r="QU4" s="0"/>
+      <c r="QV4" s="0"/>
+      <c r="QW4" s="0"/>
+      <c r="QX4" s="0"/>
+      <c r="QY4" s="0"/>
+      <c r="QZ4" s="0"/>
+      <c r="RA4" s="0"/>
+      <c r="RB4" s="0"/>
+      <c r="RC4" s="0"/>
+      <c r="RD4" s="0"/>
+      <c r="RE4" s="0"/>
+      <c r="RF4" s="0"/>
+      <c r="RG4" s="0"/>
+      <c r="RH4" s="0"/>
+      <c r="RI4" s="0"/>
+      <c r="RJ4" s="0"/>
+      <c r="RK4" s="0"/>
+      <c r="RL4" s="0"/>
+      <c r="RM4" s="0"/>
+      <c r="RN4" s="0"/>
+      <c r="RO4" s="0"/>
+      <c r="RP4" s="0"/>
+      <c r="RQ4" s="0"/>
+      <c r="RR4" s="0"/>
+      <c r="RS4" s="0"/>
+      <c r="RT4" s="0"/>
+      <c r="RU4" s="0"/>
+      <c r="RV4" s="0"/>
+      <c r="RW4" s="0"/>
+      <c r="RX4" s="0"/>
+      <c r="RY4" s="0"/>
+      <c r="RZ4" s="0"/>
+      <c r="SA4" s="0"/>
+      <c r="SB4" s="0"/>
+      <c r="SC4" s="0"/>
+      <c r="SD4" s="0"/>
+      <c r="SE4" s="0"/>
+      <c r="SF4" s="0"/>
+      <c r="SG4" s="0"/>
+      <c r="SH4" s="0"/>
+      <c r="SI4" s="0"/>
+      <c r="SJ4" s="0"/>
+      <c r="SK4" s="0"/>
+      <c r="SL4" s="0"/>
+      <c r="SM4" s="0"/>
+      <c r="SN4" s="0"/>
+      <c r="SO4" s="0"/>
+      <c r="SP4" s="0"/>
+      <c r="SQ4" s="0"/>
+      <c r="SR4" s="0"/>
+      <c r="SS4" s="0"/>
+      <c r="ST4" s="0"/>
+      <c r="SU4" s="0"/>
+      <c r="SV4" s="0"/>
+      <c r="SW4" s="0"/>
+      <c r="SX4" s="0"/>
+      <c r="SY4" s="0"/>
+      <c r="SZ4" s="0"/>
+      <c r="TA4" s="0"/>
+      <c r="TB4" s="0"/>
+      <c r="TC4" s="0"/>
+      <c r="TD4" s="0"/>
+      <c r="TE4" s="0"/>
+      <c r="TF4" s="0"/>
+      <c r="TG4" s="0"/>
+      <c r="TH4" s="0"/>
+      <c r="TI4" s="0"/>
+      <c r="TJ4" s="0"/>
+      <c r="TK4" s="0"/>
+      <c r="TL4" s="0"/>
+      <c r="TM4" s="0"/>
+      <c r="TN4" s="0"/>
+      <c r="TO4" s="0"/>
+      <c r="TP4" s="0"/>
+      <c r="TQ4" s="0"/>
+      <c r="TR4" s="0"/>
+      <c r="TS4" s="0"/>
+      <c r="TT4" s="0"/>
+      <c r="TU4" s="0"/>
+      <c r="TV4" s="0"/>
+      <c r="TW4" s="0"/>
+      <c r="TX4" s="0"/>
+      <c r="TY4" s="0"/>
+      <c r="TZ4" s="0"/>
+      <c r="UA4" s="0"/>
+      <c r="UB4" s="0"/>
+      <c r="UC4" s="0"/>
+      <c r="UD4" s="0"/>
+      <c r="UE4" s="0"/>
+      <c r="UF4" s="0"/>
+      <c r="UG4" s="0"/>
+      <c r="UH4" s="0"/>
+      <c r="UI4" s="0"/>
+      <c r="UJ4" s="0"/>
+      <c r="UK4" s="0"/>
+      <c r="UL4" s="0"/>
+      <c r="UM4" s="0"/>
+      <c r="UN4" s="0"/>
+      <c r="UO4" s="0"/>
+      <c r="UP4" s="0"/>
+      <c r="UQ4" s="0"/>
+      <c r="UR4" s="0"/>
+      <c r="US4" s="0"/>
+      <c r="UT4" s="0"/>
+      <c r="UU4" s="0"/>
+      <c r="UV4" s="0"/>
+      <c r="UW4" s="0"/>
+      <c r="UX4" s="0"/>
+      <c r="UY4" s="0"/>
+      <c r="UZ4" s="0"/>
+      <c r="VA4" s="0"/>
+      <c r="VB4" s="0"/>
+      <c r="VC4" s="0"/>
+      <c r="VD4" s="0"/>
+      <c r="VE4" s="0"/>
+      <c r="VF4" s="0"/>
+      <c r="VG4" s="0"/>
+      <c r="VH4" s="0"/>
+      <c r="VI4" s="0"/>
+      <c r="VJ4" s="0"/>
+      <c r="VK4" s="0"/>
+      <c r="VL4" s="0"/>
+      <c r="VM4" s="0"/>
+      <c r="VN4" s="0"/>
+      <c r="VO4" s="0"/>
+      <c r="VP4" s="0"/>
+      <c r="VQ4" s="0"/>
+      <c r="VR4" s="0"/>
+      <c r="VS4" s="0"/>
+      <c r="VT4" s="0"/>
+      <c r="VU4" s="0"/>
+      <c r="VV4" s="0"/>
+      <c r="VW4" s="0"/>
+      <c r="VX4" s="0"/>
+      <c r="VY4" s="0"/>
+      <c r="VZ4" s="0"/>
+      <c r="WA4" s="0"/>
+      <c r="WB4" s="0"/>
+      <c r="WC4" s="0"/>
+      <c r="WD4" s="0"/>
+      <c r="WE4" s="0"/>
+      <c r="WF4" s="0"/>
+      <c r="WG4" s="0"/>
+      <c r="WH4" s="0"/>
+      <c r="WI4" s="0"/>
+      <c r="WJ4" s="0"/>
+      <c r="WK4" s="0"/>
+      <c r="WL4" s="0"/>
+      <c r="WM4" s="0"/>
+      <c r="WN4" s="0"/>
+      <c r="WO4" s="0"/>
+      <c r="WP4" s="0"/>
+      <c r="WQ4" s="0"/>
+      <c r="WR4" s="0"/>
+      <c r="WS4" s="0"/>
+      <c r="WT4" s="0"/>
+      <c r="WU4" s="0"/>
+      <c r="WV4" s="0"/>
+      <c r="WW4" s="0"/>
+      <c r="WX4" s="0"/>
+      <c r="WY4" s="0"/>
+      <c r="WZ4" s="0"/>
+      <c r="XA4" s="0"/>
+      <c r="XB4" s="0"/>
+      <c r="XC4" s="0"/>
+      <c r="XD4" s="0"/>
+      <c r="XE4" s="0"/>
+      <c r="XF4" s="0"/>
+      <c r="XG4" s="0"/>
+      <c r="XH4" s="0"/>
+      <c r="XI4" s="0"/>
+      <c r="XJ4" s="0"/>
+      <c r="XK4" s="0"/>
+      <c r="XL4" s="0"/>
+      <c r="XM4" s="0"/>
+      <c r="XN4" s="0"/>
+      <c r="XO4" s="0"/>
+      <c r="XP4" s="0"/>
+      <c r="XQ4" s="0"/>
+      <c r="XR4" s="0"/>
+      <c r="XS4" s="0"/>
+      <c r="XT4" s="0"/>
+      <c r="XU4" s="0"/>
+      <c r="XV4" s="0"/>
+      <c r="XW4" s="0"/>
+      <c r="XX4" s="0"/>
+      <c r="XY4" s="0"/>
+      <c r="XZ4" s="0"/>
+      <c r="YA4" s="0"/>
+      <c r="YB4" s="0"/>
+      <c r="YC4" s="0"/>
+      <c r="YD4" s="0"/>
+      <c r="YE4" s="0"/>
+      <c r="YF4" s="0"/>
+      <c r="YG4" s="0"/>
+      <c r="YH4" s="0"/>
+      <c r="YI4" s="0"/>
+      <c r="YJ4" s="0"/>
+      <c r="YK4" s="0"/>
+      <c r="YL4" s="0"/>
+      <c r="YM4" s="0"/>
+      <c r="YN4" s="0"/>
+      <c r="YO4" s="0"/>
+      <c r="YP4" s="0"/>
+      <c r="YQ4" s="0"/>
+      <c r="YR4" s="0"/>
+      <c r="YS4" s="0"/>
+      <c r="YT4" s="0"/>
+      <c r="YU4" s="0"/>
+      <c r="YV4" s="0"/>
+      <c r="YW4" s="0"/>
+      <c r="YX4" s="0"/>
+      <c r="YY4" s="0"/>
+      <c r="YZ4" s="0"/>
+      <c r="ZA4" s="0"/>
+      <c r="ZB4" s="0"/>
+      <c r="ZC4" s="0"/>
+      <c r="ZD4" s="0"/>
+      <c r="ZE4" s="0"/>
+      <c r="ZF4" s="0"/>
+      <c r="ZG4" s="0"/>
+      <c r="ZH4" s="0"/>
+      <c r="ZI4" s="0"/>
+      <c r="ZJ4" s="0"/>
+      <c r="ZK4" s="0"/>
+      <c r="ZL4" s="0"/>
+      <c r="ZM4" s="0"/>
+      <c r="ZN4" s="0"/>
+      <c r="ZO4" s="0"/>
+      <c r="ZP4" s="0"/>
+      <c r="ZQ4" s="0"/>
+      <c r="ZR4" s="0"/>
+      <c r="ZS4" s="0"/>
+      <c r="ZT4" s="0"/>
+      <c r="ZU4" s="0"/>
+      <c r="ZV4" s="0"/>
+      <c r="ZW4" s="0"/>
+      <c r="ZX4" s="0"/>
+      <c r="ZY4" s="0"/>
+      <c r="ZZ4" s="0"/>
+      <c r="AAA4" s="0"/>
+      <c r="AAB4" s="0"/>
+      <c r="AAC4" s="0"/>
+      <c r="AAD4" s="0"/>
+      <c r="AAE4" s="0"/>
+      <c r="AAF4" s="0"/>
+      <c r="AAG4" s="0"/>
+      <c r="AAH4" s="0"/>
+      <c r="AAI4" s="0"/>
+      <c r="AAJ4" s="0"/>
+      <c r="AAK4" s="0"/>
+      <c r="AAL4" s="0"/>
+      <c r="AAM4" s="0"/>
+      <c r="AAN4" s="0"/>
+      <c r="AAO4" s="0"/>
+      <c r="AAP4" s="0"/>
+      <c r="AAQ4" s="0"/>
+      <c r="AAR4" s="0"/>
+      <c r="AAS4" s="0"/>
+      <c r="AAT4" s="0"/>
+      <c r="AAU4" s="0"/>
+      <c r="AAV4" s="0"/>
+      <c r="AAW4" s="0"/>
+      <c r="AAX4" s="0"/>
+      <c r="AAY4" s="0"/>
+      <c r="AAZ4" s="0"/>
+      <c r="ABA4" s="0"/>
+      <c r="ABB4" s="0"/>
+      <c r="ABC4" s="0"/>
+      <c r="ABD4" s="0"/>
+      <c r="ABE4" s="0"/>
+      <c r="ABF4" s="0"/>
+      <c r="ABG4" s="0"/>
+      <c r="ABH4" s="0"/>
+      <c r="ABI4" s="0"/>
+      <c r="ABJ4" s="0"/>
+      <c r="ABK4" s="0"/>
+      <c r="ABL4" s="0"/>
+      <c r="ABM4" s="0"/>
+      <c r="ABN4" s="0"/>
+      <c r="ABO4" s="0"/>
+      <c r="ABP4" s="0"/>
+      <c r="ABQ4" s="0"/>
+      <c r="ABR4" s="0"/>
+      <c r="ABS4" s="0"/>
+      <c r="ABT4" s="0"/>
+      <c r="ABU4" s="0"/>
+      <c r="ABV4" s="0"/>
+      <c r="ABW4" s="0"/>
+      <c r="ABX4" s="0"/>
+      <c r="ABY4" s="0"/>
+      <c r="ABZ4" s="0"/>
+      <c r="ACA4" s="0"/>
+      <c r="ACB4" s="0"/>
+      <c r="ACC4" s="0"/>
+      <c r="ACD4" s="0"/>
+      <c r="ACE4" s="0"/>
+      <c r="ACF4" s="0"/>
+      <c r="ACG4" s="0"/>
+      <c r="ACH4" s="0"/>
+      <c r="ACI4" s="0"/>
+      <c r="ACJ4" s="0"/>
+      <c r="ACK4" s="0"/>
+      <c r="ACL4" s="0"/>
+      <c r="ACM4" s="0"/>
+      <c r="ACN4" s="0"/>
+      <c r="ACO4" s="0"/>
+      <c r="ACP4" s="0"/>
+      <c r="ACQ4" s="0"/>
+      <c r="ACR4" s="0"/>
+      <c r="ACS4" s="0"/>
+      <c r="ACT4" s="0"/>
+      <c r="ACU4" s="0"/>
+      <c r="ACV4" s="0"/>
+      <c r="ACW4" s="0"/>
+      <c r="ACX4" s="0"/>
+      <c r="ACY4" s="0"/>
+      <c r="ACZ4" s="0"/>
+      <c r="ADA4" s="0"/>
+      <c r="ADB4" s="0"/>
+      <c r="ADC4" s="0"/>
+      <c r="ADD4" s="0"/>
+      <c r="ADE4" s="0"/>
+      <c r="ADF4" s="0"/>
+      <c r="ADG4" s="0"/>
+      <c r="ADH4" s="0"/>
+      <c r="ADI4" s="0"/>
+      <c r="ADJ4" s="0"/>
+      <c r="ADK4" s="0"/>
+      <c r="ADL4" s="0"/>
+      <c r="ADM4" s="0"/>
+      <c r="ADN4" s="0"/>
+      <c r="ADO4" s="0"/>
+      <c r="ADP4" s="0"/>
+      <c r="ADQ4" s="0"/>
+      <c r="ADR4" s="0"/>
+      <c r="ADS4" s="0"/>
+      <c r="ADT4" s="0"/>
+      <c r="ADU4" s="0"/>
+      <c r="ADV4" s="0"/>
+      <c r="ADW4" s="0"/>
+      <c r="ADX4" s="0"/>
+      <c r="ADY4" s="0"/>
+      <c r="ADZ4" s="0"/>
+      <c r="AEA4" s="0"/>
+      <c r="AEB4" s="0"/>
+      <c r="AEC4" s="0"/>
+      <c r="AED4" s="0"/>
+      <c r="AEE4" s="0"/>
+      <c r="AEF4" s="0"/>
+      <c r="AEG4" s="0"/>
+      <c r="AEH4" s="0"/>
+      <c r="AEI4" s="0"/>
+      <c r="AEJ4" s="0"/>
+      <c r="AEK4" s="0"/>
+      <c r="AEL4" s="0"/>
+      <c r="AEM4" s="0"/>
+      <c r="AEN4" s="0"/>
+      <c r="AEO4" s="0"/>
+      <c r="AEP4" s="0"/>
+      <c r="AEQ4" s="0"/>
+      <c r="AER4" s="0"/>
+      <c r="AES4" s="0"/>
+      <c r="AET4" s="0"/>
+      <c r="AEU4" s="0"/>
+      <c r="AEV4" s="0"/>
+      <c r="AEW4" s="0"/>
+      <c r="AEX4" s="0"/>
+      <c r="AEY4" s="0"/>
+      <c r="AEZ4" s="0"/>
+      <c r="AFA4" s="0"/>
+      <c r="AFB4" s="0"/>
+      <c r="AFC4" s="0"/>
+      <c r="AFD4" s="0"/>
+      <c r="AFE4" s="0"/>
+      <c r="AFF4" s="0"/>
+      <c r="AFG4" s="0"/>
+      <c r="AFH4" s="0"/>
+      <c r="AFI4" s="0"/>
+      <c r="AFJ4" s="0"/>
+      <c r="AFK4" s="0"/>
+      <c r="AFL4" s="0"/>
+      <c r="AFM4" s="0"/>
+      <c r="AFN4" s="0"/>
+      <c r="AFO4" s="0"/>
+      <c r="AFP4" s="0"/>
+      <c r="AFQ4" s="0"/>
+      <c r="AFR4" s="0"/>
+      <c r="AFS4" s="0"/>
+      <c r="AFT4" s="0"/>
+      <c r="AFU4" s="0"/>
+      <c r="AFV4" s="0"/>
+      <c r="AFW4" s="0"/>
+      <c r="AFX4" s="0"/>
+      <c r="AFY4" s="0"/>
+      <c r="AFZ4" s="0"/>
+      <c r="AGA4" s="0"/>
+      <c r="AGB4" s="0"/>
+      <c r="AGC4" s="0"/>
+      <c r="AGD4" s="0"/>
+      <c r="AGE4" s="0"/>
+      <c r="AGF4" s="0"/>
+      <c r="AGG4" s="0"/>
+      <c r="AGH4" s="0"/>
+      <c r="AGI4" s="0"/>
+      <c r="AGJ4" s="0"/>
+      <c r="AGK4" s="0"/>
+      <c r="AGL4" s="0"/>
+      <c r="AGM4" s="0"/>
+      <c r="AGN4" s="0"/>
+      <c r="AGO4" s="0"/>
+      <c r="AGP4" s="0"/>
+      <c r="AGQ4" s="0"/>
+      <c r="AGR4" s="0"/>
+      <c r="AGS4" s="0"/>
+      <c r="AGT4" s="0"/>
+      <c r="AGU4" s="0"/>
+      <c r="AGV4" s="0"/>
+      <c r="AGW4" s="0"/>
+      <c r="AGX4" s="0"/>
+      <c r="AGY4" s="0"/>
+      <c r="AGZ4" s="0"/>
+      <c r="AHA4" s="0"/>
+      <c r="AHB4" s="0"/>
+      <c r="AHC4" s="0"/>
+      <c r="AHD4" s="0"/>
+      <c r="AHE4" s="0"/>
+      <c r="AHF4" s="0"/>
+      <c r="AHG4" s="0"/>
+      <c r="AHH4" s="0"/>
+      <c r="AHI4" s="0"/>
+      <c r="AHJ4" s="0"/>
+      <c r="AHK4" s="0"/>
+      <c r="AHL4" s="0"/>
+      <c r="AHM4" s="0"/>
+      <c r="AHN4" s="0"/>
+      <c r="AHO4" s="0"/>
+      <c r="AHP4" s="0"/>
+      <c r="AHQ4" s="0"/>
+      <c r="AHR4" s="0"/>
+      <c r="AHS4" s="0"/>
+      <c r="AHT4" s="0"/>
+      <c r="AHU4" s="0"/>
+      <c r="AHV4" s="0"/>
+      <c r="AHW4" s="0"/>
+      <c r="AHX4" s="0"/>
+      <c r="AHY4" s="0"/>
+      <c r="AHZ4" s="0"/>
+      <c r="AIA4" s="0"/>
+      <c r="AIB4" s="0"/>
+      <c r="AIC4" s="0"/>
+      <c r="AID4" s="0"/>
+      <c r="AIE4" s="0"/>
+      <c r="AIF4" s="0"/>
+      <c r="AIG4" s="0"/>
+      <c r="AIH4" s="0"/>
+      <c r="AII4" s="0"/>
+      <c r="AIJ4" s="0"/>
+      <c r="AIK4" s="0"/>
+      <c r="AIL4" s="0"/>
+      <c r="AIM4" s="0"/>
+      <c r="AIN4" s="0"/>
+      <c r="AIO4" s="0"/>
+      <c r="AIP4" s="0"/>
+      <c r="AIQ4" s="0"/>
+      <c r="AIR4" s="0"/>
+      <c r="AIS4" s="0"/>
+      <c r="AIT4" s="0"/>
+      <c r="AIU4" s="0"/>
+      <c r="AIV4" s="0"/>
+      <c r="AIW4" s="0"/>
+      <c r="AIX4" s="0"/>
+      <c r="AIY4" s="0"/>
+      <c r="AIZ4" s="0"/>
+      <c r="AJA4" s="0"/>
+      <c r="AJB4" s="0"/>
+      <c r="AJC4" s="0"/>
+      <c r="AJD4" s="0"/>
+      <c r="AJE4" s="0"/>
+      <c r="AJF4" s="0"/>
+      <c r="AJG4" s="0"/>
+      <c r="AJH4" s="0"/>
+      <c r="AJI4" s="0"/>
+      <c r="AJJ4" s="0"/>
+      <c r="AJK4" s="0"/>
+      <c r="AJL4" s="0"/>
+      <c r="AJM4" s="0"/>
+      <c r="AJN4" s="0"/>
+      <c r="AJO4" s="0"/>
+      <c r="AJP4" s="0"/>
+      <c r="AJQ4" s="0"/>
+      <c r="AJR4" s="0"/>
+      <c r="AJS4" s="0"/>
+      <c r="AJT4" s="0"/>
+      <c r="AJU4" s="0"/>
+      <c r="AJV4" s="0"/>
+      <c r="AJW4" s="0"/>
+      <c r="AJX4" s="0"/>
+      <c r="AJY4" s="0"/>
+      <c r="AJZ4" s="0"/>
+      <c r="AKA4" s="0"/>
+      <c r="AKB4" s="0"/>
+      <c r="AKC4" s="0"/>
+      <c r="AKD4" s="0"/>
+      <c r="AKE4" s="0"/>
+      <c r="AKF4" s="0"/>
+      <c r="AKG4" s="0"/>
+      <c r="AKH4" s="0"/>
+      <c r="AKI4" s="0"/>
+      <c r="AKJ4" s="0"/>
+      <c r="AKK4" s="0"/>
+      <c r="AKL4" s="0"/>
+      <c r="AKM4" s="0"/>
+      <c r="AKN4" s="0"/>
+      <c r="AKO4" s="0"/>
+      <c r="AKP4" s="0"/>
+      <c r="AKQ4" s="0"/>
+      <c r="AKR4" s="0"/>
+      <c r="AKS4" s="0"/>
+      <c r="AKT4" s="0"/>
+      <c r="AKU4" s="0"/>
+      <c r="AKV4" s="0"/>
+      <c r="AKW4" s="0"/>
+      <c r="AKX4" s="0"/>
+      <c r="AKY4" s="0"/>
+      <c r="AKZ4" s="0"/>
+      <c r="ALA4" s="0"/>
+      <c r="ALB4" s="0"/>
+      <c r="ALC4" s="0"/>
+      <c r="ALD4" s="0"/>
+      <c r="ALE4" s="0"/>
+      <c r="ALF4" s="0"/>
+      <c r="ALG4" s="0"/>
+      <c r="ALH4" s="0"/>
+      <c r="ALI4" s="0"/>
+      <c r="ALJ4" s="0"/>
+      <c r="ALK4" s="0"/>
+      <c r="ALL4" s="0"/>
+      <c r="ALM4" s="0"/>
+      <c r="ALN4" s="0"/>
+      <c r="ALO4" s="0"/>
+      <c r="ALP4" s="0"/>
+      <c r="ALQ4" s="0"/>
+      <c r="ALR4" s="0"/>
+      <c r="ALS4" s="0"/>
+      <c r="ALT4" s="0"/>
+      <c r="ALU4" s="0"/>
+      <c r="ALV4" s="0"/>
+      <c r="ALW4" s="0"/>
+      <c r="ALX4" s="0"/>
+      <c r="ALY4" s="0"/>
+      <c r="ALZ4" s="0"/>
+      <c r="AMA4" s="0"/>
+      <c r="AMB4" s="0"/>
+      <c r="AMC4" s="0"/>
+      <c r="AMD4" s="0"/>
+      <c r="AME4" s="0"/>
+      <c r="AMF4" s="0"/>
+      <c r="AMG4" s="0"/>
+      <c r="AMH4" s="0"/>
+      <c r="AMI4" s="0"/>
     </row>
     <row r="5" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
@@ -588,6 +2616,1020 @@
       <c r="I6" s="1" t="s">
         <v>42</v>
       </c>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+      <c r="L6" s="0"/>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
+      <c r="R6" s="0"/>
+      <c r="S6" s="0"/>
+      <c r="T6" s="0"/>
+      <c r="U6" s="0"/>
+      <c r="V6" s="0"/>
+      <c r="W6" s="0"/>
+      <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
+      <c r="Z6" s="0"/>
+      <c r="AA6" s="0"/>
+      <c r="AB6" s="0"/>
+      <c r="AC6" s="0"/>
+      <c r="AD6" s="0"/>
+      <c r="AE6" s="0"/>
+      <c r="AF6" s="0"/>
+      <c r="AG6" s="0"/>
+      <c r="AH6" s="0"/>
+      <c r="AI6" s="0"/>
+      <c r="AJ6" s="0"/>
+      <c r="AK6" s="0"/>
+      <c r="AL6" s="0"/>
+      <c r="AM6" s="0"/>
+      <c r="AN6" s="0"/>
+      <c r="AO6" s="0"/>
+      <c r="AP6" s="0"/>
+      <c r="AQ6" s="0"/>
+      <c r="AR6" s="0"/>
+      <c r="AS6" s="0"/>
+      <c r="AT6" s="0"/>
+      <c r="AU6" s="0"/>
+      <c r="AV6" s="0"/>
+      <c r="AW6" s="0"/>
+      <c r="AX6" s="0"/>
+      <c r="AY6" s="0"/>
+      <c r="AZ6" s="0"/>
+      <c r="BA6" s="0"/>
+      <c r="BB6" s="0"/>
+      <c r="BC6" s="0"/>
+      <c r="BD6" s="0"/>
+      <c r="BE6" s="0"/>
+      <c r="BF6" s="0"/>
+      <c r="BG6" s="0"/>
+      <c r="BH6" s="0"/>
+      <c r="BI6" s="0"/>
+      <c r="BJ6" s="0"/>
+      <c r="BK6" s="0"/>
+      <c r="BL6" s="0"/>
+      <c r="BM6" s="0"/>
+      <c r="BN6" s="0"/>
+      <c r="BO6" s="0"/>
+      <c r="BP6" s="0"/>
+      <c r="BQ6" s="0"/>
+      <c r="BR6" s="0"/>
+      <c r="BS6" s="0"/>
+      <c r="BT6" s="0"/>
+      <c r="BU6" s="0"/>
+      <c r="BV6" s="0"/>
+      <c r="BW6" s="0"/>
+      <c r="BX6" s="0"/>
+      <c r="BY6" s="0"/>
+      <c r="BZ6" s="0"/>
+      <c r="CA6" s="0"/>
+      <c r="CB6" s="0"/>
+      <c r="CC6" s="0"/>
+      <c r="CD6" s="0"/>
+      <c r="CE6" s="0"/>
+      <c r="CF6" s="0"/>
+      <c r="CG6" s="0"/>
+      <c r="CH6" s="0"/>
+      <c r="CI6" s="0"/>
+      <c r="CJ6" s="0"/>
+      <c r="CK6" s="0"/>
+      <c r="CL6" s="0"/>
+      <c r="CM6" s="0"/>
+      <c r="CN6" s="0"/>
+      <c r="CO6" s="0"/>
+      <c r="CP6" s="0"/>
+      <c r="CQ6" s="0"/>
+      <c r="CR6" s="0"/>
+      <c r="CS6" s="0"/>
+      <c r="CT6" s="0"/>
+      <c r="CU6" s="0"/>
+      <c r="CV6" s="0"/>
+      <c r="CW6" s="0"/>
+      <c r="CX6" s="0"/>
+      <c r="CY6" s="0"/>
+      <c r="CZ6" s="0"/>
+      <c r="DA6" s="0"/>
+      <c r="DB6" s="0"/>
+      <c r="DC6" s="0"/>
+      <c r="DD6" s="0"/>
+      <c r="DE6" s="0"/>
+      <c r="DF6" s="0"/>
+      <c r="DG6" s="0"/>
+      <c r="DH6" s="0"/>
+      <c r="DI6" s="0"/>
+      <c r="DJ6" s="0"/>
+      <c r="DK6" s="0"/>
+      <c r="DL6" s="0"/>
+      <c r="DM6" s="0"/>
+      <c r="DN6" s="0"/>
+      <c r="DO6" s="0"/>
+      <c r="DP6" s="0"/>
+      <c r="DQ6" s="0"/>
+      <c r="DR6" s="0"/>
+      <c r="DS6" s="0"/>
+      <c r="DT6" s="0"/>
+      <c r="DU6" s="0"/>
+      <c r="DV6" s="0"/>
+      <c r="DW6" s="0"/>
+      <c r="DX6" s="0"/>
+      <c r="DY6" s="0"/>
+      <c r="DZ6" s="0"/>
+      <c r="EA6" s="0"/>
+      <c r="EB6" s="0"/>
+      <c r="EC6" s="0"/>
+      <c r="ED6" s="0"/>
+      <c r="EE6" s="0"/>
+      <c r="EF6" s="0"/>
+      <c r="EG6" s="0"/>
+      <c r="EH6" s="0"/>
+      <c r="EI6" s="0"/>
+      <c r="EJ6" s="0"/>
+      <c r="EK6" s="0"/>
+      <c r="EL6" s="0"/>
+      <c r="EM6" s="0"/>
+      <c r="EN6" s="0"/>
+      <c r="EO6" s="0"/>
+      <c r="EP6" s="0"/>
+      <c r="EQ6" s="0"/>
+      <c r="ER6" s="0"/>
+      <c r="ES6" s="0"/>
+      <c r="ET6" s="0"/>
+      <c r="EU6" s="0"/>
+      <c r="EV6" s="0"/>
+      <c r="EW6" s="0"/>
+      <c r="EX6" s="0"/>
+      <c r="EY6" s="0"/>
+      <c r="EZ6" s="0"/>
+      <c r="FA6" s="0"/>
+      <c r="FB6" s="0"/>
+      <c r="FC6" s="0"/>
+      <c r="FD6" s="0"/>
+      <c r="FE6" s="0"/>
+      <c r="FF6" s="0"/>
+      <c r="FG6" s="0"/>
+      <c r="FH6" s="0"/>
+      <c r="FI6" s="0"/>
+      <c r="FJ6" s="0"/>
+      <c r="FK6" s="0"/>
+      <c r="FL6" s="0"/>
+      <c r="FM6" s="0"/>
+      <c r="FN6" s="0"/>
+      <c r="FO6" s="0"/>
+      <c r="FP6" s="0"/>
+      <c r="FQ6" s="0"/>
+      <c r="FR6" s="0"/>
+      <c r="FS6" s="0"/>
+      <c r="FT6" s="0"/>
+      <c r="FU6" s="0"/>
+      <c r="FV6" s="0"/>
+      <c r="FW6" s="0"/>
+      <c r="FX6" s="0"/>
+      <c r="FY6" s="0"/>
+      <c r="FZ6" s="0"/>
+      <c r="GA6" s="0"/>
+      <c r="GB6" s="0"/>
+      <c r="GC6" s="0"/>
+      <c r="GD6" s="0"/>
+      <c r="GE6" s="0"/>
+      <c r="GF6" s="0"/>
+      <c r="GG6" s="0"/>
+      <c r="GH6" s="0"/>
+      <c r="GI6" s="0"/>
+      <c r="GJ6" s="0"/>
+      <c r="GK6" s="0"/>
+      <c r="GL6" s="0"/>
+      <c r="GM6" s="0"/>
+      <c r="GN6" s="0"/>
+      <c r="GO6" s="0"/>
+      <c r="GP6" s="0"/>
+      <c r="GQ6" s="0"/>
+      <c r="GR6" s="0"/>
+      <c r="GS6" s="0"/>
+      <c r="GT6" s="0"/>
+      <c r="GU6" s="0"/>
+      <c r="GV6" s="0"/>
+      <c r="GW6" s="0"/>
+      <c r="GX6" s="0"/>
+      <c r="GY6" s="0"/>
+      <c r="GZ6" s="0"/>
+      <c r="HA6" s="0"/>
+      <c r="HB6" s="0"/>
+      <c r="HC6" s="0"/>
+      <c r="HD6" s="0"/>
+      <c r="HE6" s="0"/>
+      <c r="HF6" s="0"/>
+      <c r="HG6" s="0"/>
+      <c r="HH6" s="0"/>
+      <c r="HI6" s="0"/>
+      <c r="HJ6" s="0"/>
+      <c r="HK6" s="0"/>
+      <c r="HL6" s="0"/>
+      <c r="HM6" s="0"/>
+      <c r="HN6" s="0"/>
+      <c r="HO6" s="0"/>
+      <c r="HP6" s="0"/>
+      <c r="HQ6" s="0"/>
+      <c r="HR6" s="0"/>
+      <c r="HS6" s="0"/>
+      <c r="HT6" s="0"/>
+      <c r="HU6" s="0"/>
+      <c r="HV6" s="0"/>
+      <c r="HW6" s="0"/>
+      <c r="HX6" s="0"/>
+      <c r="HY6" s="0"/>
+      <c r="HZ6" s="0"/>
+      <c r="IA6" s="0"/>
+      <c r="IB6" s="0"/>
+      <c r="IC6" s="0"/>
+      <c r="ID6" s="0"/>
+      <c r="IE6" s="0"/>
+      <c r="IF6" s="0"/>
+      <c r="IG6" s="0"/>
+      <c r="IH6" s="0"/>
+      <c r="II6" s="0"/>
+      <c r="IJ6" s="0"/>
+      <c r="IK6" s="0"/>
+      <c r="IL6" s="0"/>
+      <c r="IM6" s="0"/>
+      <c r="IN6" s="0"/>
+      <c r="IO6" s="0"/>
+      <c r="IP6" s="0"/>
+      <c r="IQ6" s="0"/>
+      <c r="IR6" s="0"/>
+      <c r="IS6" s="0"/>
+      <c r="IT6" s="0"/>
+      <c r="IU6" s="0"/>
+      <c r="IV6" s="0"/>
+      <c r="IW6" s="0"/>
+      <c r="IX6" s="0"/>
+      <c r="IY6" s="0"/>
+      <c r="IZ6" s="0"/>
+      <c r="JA6" s="0"/>
+      <c r="JB6" s="0"/>
+      <c r="JC6" s="0"/>
+      <c r="JD6" s="0"/>
+      <c r="JE6" s="0"/>
+      <c r="JF6" s="0"/>
+      <c r="JG6" s="0"/>
+      <c r="JH6" s="0"/>
+      <c r="JI6" s="0"/>
+      <c r="JJ6" s="0"/>
+      <c r="JK6" s="0"/>
+      <c r="JL6" s="0"/>
+      <c r="JM6" s="0"/>
+      <c r="JN6" s="0"/>
+      <c r="JO6" s="0"/>
+      <c r="JP6" s="0"/>
+      <c r="JQ6" s="0"/>
+      <c r="JR6" s="0"/>
+      <c r="JS6" s="0"/>
+      <c r="JT6" s="0"/>
+      <c r="JU6" s="0"/>
+      <c r="JV6" s="0"/>
+      <c r="JW6" s="0"/>
+      <c r="JX6" s="0"/>
+      <c r="JY6" s="0"/>
+      <c r="JZ6" s="0"/>
+      <c r="KA6" s="0"/>
+      <c r="KB6" s="0"/>
+      <c r="KC6" s="0"/>
+      <c r="KD6" s="0"/>
+      <c r="KE6" s="0"/>
+      <c r="KF6" s="0"/>
+      <c r="KG6" s="0"/>
+      <c r="KH6" s="0"/>
+      <c r="KI6" s="0"/>
+      <c r="KJ6" s="0"/>
+      <c r="KK6" s="0"/>
+      <c r="KL6" s="0"/>
+      <c r="KM6" s="0"/>
+      <c r="KN6" s="0"/>
+      <c r="KO6" s="0"/>
+      <c r="KP6" s="0"/>
+      <c r="KQ6" s="0"/>
+      <c r="KR6" s="0"/>
+      <c r="KS6" s="0"/>
+      <c r="KT6" s="0"/>
+      <c r="KU6" s="0"/>
+      <c r="KV6" s="0"/>
+      <c r="KW6" s="0"/>
+      <c r="KX6" s="0"/>
+      <c r="KY6" s="0"/>
+      <c r="KZ6" s="0"/>
+      <c r="LA6" s="0"/>
+      <c r="LB6" s="0"/>
+      <c r="LC6" s="0"/>
+      <c r="LD6" s="0"/>
+      <c r="LE6" s="0"/>
+      <c r="LF6" s="0"/>
+      <c r="LG6" s="0"/>
+      <c r="LH6" s="0"/>
+      <c r="LI6" s="0"/>
+      <c r="LJ6" s="0"/>
+      <c r="LK6" s="0"/>
+      <c r="LL6" s="0"/>
+      <c r="LM6" s="0"/>
+      <c r="LN6" s="0"/>
+      <c r="LO6" s="0"/>
+      <c r="LP6" s="0"/>
+      <c r="LQ6" s="0"/>
+      <c r="LR6" s="0"/>
+      <c r="LS6" s="0"/>
+      <c r="LT6" s="0"/>
+      <c r="LU6" s="0"/>
+      <c r="LV6" s="0"/>
+      <c r="LW6" s="0"/>
+      <c r="LX6" s="0"/>
+      <c r="LY6" s="0"/>
+      <c r="LZ6" s="0"/>
+      <c r="MA6" s="0"/>
+      <c r="MB6" s="0"/>
+      <c r="MC6" s="0"/>
+      <c r="MD6" s="0"/>
+      <c r="ME6" s="0"/>
+      <c r="MF6" s="0"/>
+      <c r="MG6" s="0"/>
+      <c r="MH6" s="0"/>
+      <c r="MI6" s="0"/>
+      <c r="MJ6" s="0"/>
+      <c r="MK6" s="0"/>
+      <c r="ML6" s="0"/>
+      <c r="MM6" s="0"/>
+      <c r="MN6" s="0"/>
+      <c r="MO6" s="0"/>
+      <c r="MP6" s="0"/>
+      <c r="MQ6" s="0"/>
+      <c r="MR6" s="0"/>
+      <c r="MS6" s="0"/>
+      <c r="MT6" s="0"/>
+      <c r="MU6" s="0"/>
+      <c r="MV6" s="0"/>
+      <c r="MW6" s="0"/>
+      <c r="MX6" s="0"/>
+      <c r="MY6" s="0"/>
+      <c r="MZ6" s="0"/>
+      <c r="NA6" s="0"/>
+      <c r="NB6" s="0"/>
+      <c r="NC6" s="0"/>
+      <c r="ND6" s="0"/>
+      <c r="NE6" s="0"/>
+      <c r="NF6" s="0"/>
+      <c r="NG6" s="0"/>
+      <c r="NH6" s="0"/>
+      <c r="NI6" s="0"/>
+      <c r="NJ6" s="0"/>
+      <c r="NK6" s="0"/>
+      <c r="NL6" s="0"/>
+      <c r="NM6" s="0"/>
+      <c r="NN6" s="0"/>
+      <c r="NO6" s="0"/>
+      <c r="NP6" s="0"/>
+      <c r="NQ6" s="0"/>
+      <c r="NR6" s="0"/>
+      <c r="NS6" s="0"/>
+      <c r="NT6" s="0"/>
+      <c r="NU6" s="0"/>
+      <c r="NV6" s="0"/>
+      <c r="NW6" s="0"/>
+      <c r="NX6" s="0"/>
+      <c r="NY6" s="0"/>
+      <c r="NZ6" s="0"/>
+      <c r="OA6" s="0"/>
+      <c r="OB6" s="0"/>
+      <c r="OC6" s="0"/>
+      <c r="OD6" s="0"/>
+      <c r="OE6" s="0"/>
+      <c r="OF6" s="0"/>
+      <c r="OG6" s="0"/>
+      <c r="OH6" s="0"/>
+      <c r="OI6" s="0"/>
+      <c r="OJ6" s="0"/>
+      <c r="OK6" s="0"/>
+      <c r="OL6" s="0"/>
+      <c r="OM6" s="0"/>
+      <c r="ON6" s="0"/>
+      <c r="OO6" s="0"/>
+      <c r="OP6" s="0"/>
+      <c r="OQ6" s="0"/>
+      <c r="OR6" s="0"/>
+      <c r="OS6" s="0"/>
+      <c r="OT6" s="0"/>
+      <c r="OU6" s="0"/>
+      <c r="OV6" s="0"/>
+      <c r="OW6" s="0"/>
+      <c r="OX6" s="0"/>
+      <c r="OY6" s="0"/>
+      <c r="OZ6" s="0"/>
+      <c r="PA6" s="0"/>
+      <c r="PB6" s="0"/>
+      <c r="PC6" s="0"/>
+      <c r="PD6" s="0"/>
+      <c r="PE6" s="0"/>
+      <c r="PF6" s="0"/>
+      <c r="PG6" s="0"/>
+      <c r="PH6" s="0"/>
+      <c r="PI6" s="0"/>
+      <c r="PJ6" s="0"/>
+      <c r="PK6" s="0"/>
+      <c r="PL6" s="0"/>
+      <c r="PM6" s="0"/>
+      <c r="PN6" s="0"/>
+      <c r="PO6" s="0"/>
+      <c r="PP6" s="0"/>
+      <c r="PQ6" s="0"/>
+      <c r="PR6" s="0"/>
+      <c r="PS6" s="0"/>
+      <c r="PT6" s="0"/>
+      <c r="PU6" s="0"/>
+      <c r="PV6" s="0"/>
+      <c r="PW6" s="0"/>
+      <c r="PX6" s="0"/>
+      <c r="PY6" s="0"/>
+      <c r="PZ6" s="0"/>
+      <c r="QA6" s="0"/>
+      <c r="QB6" s="0"/>
+      <c r="QC6" s="0"/>
+      <c r="QD6" s="0"/>
+      <c r="QE6" s="0"/>
+      <c r="QF6" s="0"/>
+      <c r="QG6" s="0"/>
+      <c r="QH6" s="0"/>
+      <c r="QI6" s="0"/>
+      <c r="QJ6" s="0"/>
+      <c r="QK6" s="0"/>
+      <c r="QL6" s="0"/>
+      <c r="QM6" s="0"/>
+      <c r="QN6" s="0"/>
+      <c r="QO6" s="0"/>
+      <c r="QP6" s="0"/>
+      <c r="QQ6" s="0"/>
+      <c r="QR6" s="0"/>
+      <c r="QS6" s="0"/>
+      <c r="QT6" s="0"/>
+      <c r="QU6" s="0"/>
+      <c r="QV6" s="0"/>
+      <c r="QW6" s="0"/>
+      <c r="QX6" s="0"/>
+      <c r="QY6" s="0"/>
+      <c r="QZ6" s="0"/>
+      <c r="RA6" s="0"/>
+      <c r="RB6" s="0"/>
+      <c r="RC6" s="0"/>
+      <c r="RD6" s="0"/>
+      <c r="RE6" s="0"/>
+      <c r="RF6" s="0"/>
+      <c r="RG6" s="0"/>
+      <c r="RH6" s="0"/>
+      <c r="RI6" s="0"/>
+      <c r="RJ6" s="0"/>
+      <c r="RK6" s="0"/>
+      <c r="RL6" s="0"/>
+      <c r="RM6" s="0"/>
+      <c r="RN6" s="0"/>
+      <c r="RO6" s="0"/>
+      <c r="RP6" s="0"/>
+      <c r="RQ6" s="0"/>
+      <c r="RR6" s="0"/>
+      <c r="RS6" s="0"/>
+      <c r="RT6" s="0"/>
+      <c r="RU6" s="0"/>
+      <c r="RV6" s="0"/>
+      <c r="RW6" s="0"/>
+      <c r="RX6" s="0"/>
+      <c r="RY6" s="0"/>
+      <c r="RZ6" s="0"/>
+      <c r="SA6" s="0"/>
+      <c r="SB6" s="0"/>
+      <c r="SC6" s="0"/>
+      <c r="SD6" s="0"/>
+      <c r="SE6" s="0"/>
+      <c r="SF6" s="0"/>
+      <c r="SG6" s="0"/>
+      <c r="SH6" s="0"/>
+      <c r="SI6" s="0"/>
+      <c r="SJ6" s="0"/>
+      <c r="SK6" s="0"/>
+      <c r="SL6" s="0"/>
+      <c r="SM6" s="0"/>
+      <c r="SN6" s="0"/>
+      <c r="SO6" s="0"/>
+      <c r="SP6" s="0"/>
+      <c r="SQ6" s="0"/>
+      <c r="SR6" s="0"/>
+      <c r="SS6" s="0"/>
+      <c r="ST6" s="0"/>
+      <c r="SU6" s="0"/>
+      <c r="SV6" s="0"/>
+      <c r="SW6" s="0"/>
+      <c r="SX6" s="0"/>
+      <c r="SY6" s="0"/>
+      <c r="SZ6" s="0"/>
+      <c r="TA6" s="0"/>
+      <c r="TB6" s="0"/>
+      <c r="TC6" s="0"/>
+      <c r="TD6" s="0"/>
+      <c r="TE6" s="0"/>
+      <c r="TF6" s="0"/>
+      <c r="TG6" s="0"/>
+      <c r="TH6" s="0"/>
+      <c r="TI6" s="0"/>
+      <c r="TJ6" s="0"/>
+      <c r="TK6" s="0"/>
+      <c r="TL6" s="0"/>
+      <c r="TM6" s="0"/>
+      <c r="TN6" s="0"/>
+      <c r="TO6" s="0"/>
+      <c r="TP6" s="0"/>
+      <c r="TQ6" s="0"/>
+      <c r="TR6" s="0"/>
+      <c r="TS6" s="0"/>
+      <c r="TT6" s="0"/>
+      <c r="TU6" s="0"/>
+      <c r="TV6" s="0"/>
+      <c r="TW6" s="0"/>
+      <c r="TX6" s="0"/>
+      <c r="TY6" s="0"/>
+      <c r="TZ6" s="0"/>
+      <c r="UA6" s="0"/>
+      <c r="UB6" s="0"/>
+      <c r="UC6" s="0"/>
+      <c r="UD6" s="0"/>
+      <c r="UE6" s="0"/>
+      <c r="UF6" s="0"/>
+      <c r="UG6" s="0"/>
+      <c r="UH6" s="0"/>
+      <c r="UI6" s="0"/>
+      <c r="UJ6" s="0"/>
+      <c r="UK6" s="0"/>
+      <c r="UL6" s="0"/>
+      <c r="UM6" s="0"/>
+      <c r="UN6" s="0"/>
+      <c r="UO6" s="0"/>
+      <c r="UP6" s="0"/>
+      <c r="UQ6" s="0"/>
+      <c r="UR6" s="0"/>
+      <c r="US6" s="0"/>
+      <c r="UT6" s="0"/>
+      <c r="UU6" s="0"/>
+      <c r="UV6" s="0"/>
+      <c r="UW6" s="0"/>
+      <c r="UX6" s="0"/>
+      <c r="UY6" s="0"/>
+      <c r="UZ6" s="0"/>
+      <c r="VA6" s="0"/>
+      <c r="VB6" s="0"/>
+      <c r="VC6" s="0"/>
+      <c r="VD6" s="0"/>
+      <c r="VE6" s="0"/>
+      <c r="VF6" s="0"/>
+      <c r="VG6" s="0"/>
+      <c r="VH6" s="0"/>
+      <c r="VI6" s="0"/>
+      <c r="VJ6" s="0"/>
+      <c r="VK6" s="0"/>
+      <c r="VL6" s="0"/>
+      <c r="VM6" s="0"/>
+      <c r="VN6" s="0"/>
+      <c r="VO6" s="0"/>
+      <c r="VP6" s="0"/>
+      <c r="VQ6" s="0"/>
+      <c r="VR6" s="0"/>
+      <c r="VS6" s="0"/>
+      <c r="VT6" s="0"/>
+      <c r="VU6" s="0"/>
+      <c r="VV6" s="0"/>
+      <c r="VW6" s="0"/>
+      <c r="VX6" s="0"/>
+      <c r="VY6" s="0"/>
+      <c r="VZ6" s="0"/>
+      <c r="WA6" s="0"/>
+      <c r="WB6" s="0"/>
+      <c r="WC6" s="0"/>
+      <c r="WD6" s="0"/>
+      <c r="WE6" s="0"/>
+      <c r="WF6" s="0"/>
+      <c r="WG6" s="0"/>
+      <c r="WH6" s="0"/>
+      <c r="WI6" s="0"/>
+      <c r="WJ6" s="0"/>
+      <c r="WK6" s="0"/>
+      <c r="WL6" s="0"/>
+      <c r="WM6" s="0"/>
+      <c r="WN6" s="0"/>
+      <c r="WO6" s="0"/>
+      <c r="WP6" s="0"/>
+      <c r="WQ6" s="0"/>
+      <c r="WR6" s="0"/>
+      <c r="WS6" s="0"/>
+      <c r="WT6" s="0"/>
+      <c r="WU6" s="0"/>
+      <c r="WV6" s="0"/>
+      <c r="WW6" s="0"/>
+      <c r="WX6" s="0"/>
+      <c r="WY6" s="0"/>
+      <c r="WZ6" s="0"/>
+      <c r="XA6" s="0"/>
+      <c r="XB6" s="0"/>
+      <c r="XC6" s="0"/>
+      <c r="XD6" s="0"/>
+      <c r="XE6" s="0"/>
+      <c r="XF6" s="0"/>
+      <c r="XG6" s="0"/>
+      <c r="XH6" s="0"/>
+      <c r="XI6" s="0"/>
+      <c r="XJ6" s="0"/>
+      <c r="XK6" s="0"/>
+      <c r="XL6" s="0"/>
+      <c r="XM6" s="0"/>
+      <c r="XN6" s="0"/>
+      <c r="XO6" s="0"/>
+      <c r="XP6" s="0"/>
+      <c r="XQ6" s="0"/>
+      <c r="XR6" s="0"/>
+      <c r="XS6" s="0"/>
+      <c r="XT6" s="0"/>
+      <c r="XU6" s="0"/>
+      <c r="XV6" s="0"/>
+      <c r="XW6" s="0"/>
+      <c r="XX6" s="0"/>
+      <c r="XY6" s="0"/>
+      <c r="XZ6" s="0"/>
+      <c r="YA6" s="0"/>
+      <c r="YB6" s="0"/>
+      <c r="YC6" s="0"/>
+      <c r="YD6" s="0"/>
+      <c r="YE6" s="0"/>
+      <c r="YF6" s="0"/>
+      <c r="YG6" s="0"/>
+      <c r="YH6" s="0"/>
+      <c r="YI6" s="0"/>
+      <c r="YJ6" s="0"/>
+      <c r="YK6" s="0"/>
+      <c r="YL6" s="0"/>
+      <c r="YM6" s="0"/>
+      <c r="YN6" s="0"/>
+      <c r="YO6" s="0"/>
+      <c r="YP6" s="0"/>
+      <c r="YQ6" s="0"/>
+      <c r="YR6" s="0"/>
+      <c r="YS6" s="0"/>
+      <c r="YT6" s="0"/>
+      <c r="YU6" s="0"/>
+      <c r="YV6" s="0"/>
+      <c r="YW6" s="0"/>
+      <c r="YX6" s="0"/>
+      <c r="YY6" s="0"/>
+      <c r="YZ6" s="0"/>
+      <c r="ZA6" s="0"/>
+      <c r="ZB6" s="0"/>
+      <c r="ZC6" s="0"/>
+      <c r="ZD6" s="0"/>
+      <c r="ZE6" s="0"/>
+      <c r="ZF6" s="0"/>
+      <c r="ZG6" s="0"/>
+      <c r="ZH6" s="0"/>
+      <c r="ZI6" s="0"/>
+      <c r="ZJ6" s="0"/>
+      <c r="ZK6" s="0"/>
+      <c r="ZL6" s="0"/>
+      <c r="ZM6" s="0"/>
+      <c r="ZN6" s="0"/>
+      <c r="ZO6" s="0"/>
+      <c r="ZP6" s="0"/>
+      <c r="ZQ6" s="0"/>
+      <c r="ZR6" s="0"/>
+      <c r="ZS6" s="0"/>
+      <c r="ZT6" s="0"/>
+      <c r="ZU6" s="0"/>
+      <c r="ZV6" s="0"/>
+      <c r="ZW6" s="0"/>
+      <c r="ZX6" s="0"/>
+      <c r="ZY6" s="0"/>
+      <c r="ZZ6" s="0"/>
+      <c r="AAA6" s="0"/>
+      <c r="AAB6" s="0"/>
+      <c r="AAC6" s="0"/>
+      <c r="AAD6" s="0"/>
+      <c r="AAE6" s="0"/>
+      <c r="AAF6" s="0"/>
+      <c r="AAG6" s="0"/>
+      <c r="AAH6" s="0"/>
+      <c r="AAI6" s="0"/>
+      <c r="AAJ6" s="0"/>
+      <c r="AAK6" s="0"/>
+      <c r="AAL6" s="0"/>
+      <c r="AAM6" s="0"/>
+      <c r="AAN6" s="0"/>
+      <c r="AAO6" s="0"/>
+      <c r="AAP6" s="0"/>
+      <c r="AAQ6" s="0"/>
+      <c r="AAR6" s="0"/>
+      <c r="AAS6" s="0"/>
+      <c r="AAT6" s="0"/>
+      <c r="AAU6" s="0"/>
+      <c r="AAV6" s="0"/>
+      <c r="AAW6" s="0"/>
+      <c r="AAX6" s="0"/>
+      <c r="AAY6" s="0"/>
+      <c r="AAZ6" s="0"/>
+      <c r="ABA6" s="0"/>
+      <c r="ABB6" s="0"/>
+      <c r="ABC6" s="0"/>
+      <c r="ABD6" s="0"/>
+      <c r="ABE6" s="0"/>
+      <c r="ABF6" s="0"/>
+      <c r="ABG6" s="0"/>
+      <c r="ABH6" s="0"/>
+      <c r="ABI6" s="0"/>
+      <c r="ABJ6" s="0"/>
+      <c r="ABK6" s="0"/>
+      <c r="ABL6" s="0"/>
+      <c r="ABM6" s="0"/>
+      <c r="ABN6" s="0"/>
+      <c r="ABO6" s="0"/>
+      <c r="ABP6" s="0"/>
+      <c r="ABQ6" s="0"/>
+      <c r="ABR6" s="0"/>
+      <c r="ABS6" s="0"/>
+      <c r="ABT6" s="0"/>
+      <c r="ABU6" s="0"/>
+      <c r="ABV6" s="0"/>
+      <c r="ABW6" s="0"/>
+      <c r="ABX6" s="0"/>
+      <c r="ABY6" s="0"/>
+      <c r="ABZ6" s="0"/>
+      <c r="ACA6" s="0"/>
+      <c r="ACB6" s="0"/>
+      <c r="ACC6" s="0"/>
+      <c r="ACD6" s="0"/>
+      <c r="ACE6" s="0"/>
+      <c r="ACF6" s="0"/>
+      <c r="ACG6" s="0"/>
+      <c r="ACH6" s="0"/>
+      <c r="ACI6" s="0"/>
+      <c r="ACJ6" s="0"/>
+      <c r="ACK6" s="0"/>
+      <c r="ACL6" s="0"/>
+      <c r="ACM6" s="0"/>
+      <c r="ACN6" s="0"/>
+      <c r="ACO6" s="0"/>
+      <c r="ACP6" s="0"/>
+      <c r="ACQ6" s="0"/>
+      <c r="ACR6" s="0"/>
+      <c r="ACS6" s="0"/>
+      <c r="ACT6" s="0"/>
+      <c r="ACU6" s="0"/>
+      <c r="ACV6" s="0"/>
+      <c r="ACW6" s="0"/>
+      <c r="ACX6" s="0"/>
+      <c r="ACY6" s="0"/>
+      <c r="ACZ6" s="0"/>
+      <c r="ADA6" s="0"/>
+      <c r="ADB6" s="0"/>
+      <c r="ADC6" s="0"/>
+      <c r="ADD6" s="0"/>
+      <c r="ADE6" s="0"/>
+      <c r="ADF6" s="0"/>
+      <c r="ADG6" s="0"/>
+      <c r="ADH6" s="0"/>
+      <c r="ADI6" s="0"/>
+      <c r="ADJ6" s="0"/>
+      <c r="ADK6" s="0"/>
+      <c r="ADL6" s="0"/>
+      <c r="ADM6" s="0"/>
+      <c r="ADN6" s="0"/>
+      <c r="ADO6" s="0"/>
+      <c r="ADP6" s="0"/>
+      <c r="ADQ6" s="0"/>
+      <c r="ADR6" s="0"/>
+      <c r="ADS6" s="0"/>
+      <c r="ADT6" s="0"/>
+      <c r="ADU6" s="0"/>
+      <c r="ADV6" s="0"/>
+      <c r="ADW6" s="0"/>
+      <c r="ADX6" s="0"/>
+      <c r="ADY6" s="0"/>
+      <c r="ADZ6" s="0"/>
+      <c r="AEA6" s="0"/>
+      <c r="AEB6" s="0"/>
+      <c r="AEC6" s="0"/>
+      <c r="AED6" s="0"/>
+      <c r="AEE6" s="0"/>
+      <c r="AEF6" s="0"/>
+      <c r="AEG6" s="0"/>
+      <c r="AEH6" s="0"/>
+      <c r="AEI6" s="0"/>
+      <c r="AEJ6" s="0"/>
+      <c r="AEK6" s="0"/>
+      <c r="AEL6" s="0"/>
+      <c r="AEM6" s="0"/>
+      <c r="AEN6" s="0"/>
+      <c r="AEO6" s="0"/>
+      <c r="AEP6" s="0"/>
+      <c r="AEQ6" s="0"/>
+      <c r="AER6" s="0"/>
+      <c r="AES6" s="0"/>
+      <c r="AET6" s="0"/>
+      <c r="AEU6" s="0"/>
+      <c r="AEV6" s="0"/>
+      <c r="AEW6" s="0"/>
+      <c r="AEX6" s="0"/>
+      <c r="AEY6" s="0"/>
+      <c r="AEZ6" s="0"/>
+      <c r="AFA6" s="0"/>
+      <c r="AFB6" s="0"/>
+      <c r="AFC6" s="0"/>
+      <c r="AFD6" s="0"/>
+      <c r="AFE6" s="0"/>
+      <c r="AFF6" s="0"/>
+      <c r="AFG6" s="0"/>
+      <c r="AFH6" s="0"/>
+      <c r="AFI6" s="0"/>
+      <c r="AFJ6" s="0"/>
+      <c r="AFK6" s="0"/>
+      <c r="AFL6" s="0"/>
+      <c r="AFM6" s="0"/>
+      <c r="AFN6" s="0"/>
+      <c r="AFO6" s="0"/>
+      <c r="AFP6" s="0"/>
+      <c r="AFQ6" s="0"/>
+      <c r="AFR6" s="0"/>
+      <c r="AFS6" s="0"/>
+      <c r="AFT6" s="0"/>
+      <c r="AFU6" s="0"/>
+      <c r="AFV6" s="0"/>
+      <c r="AFW6" s="0"/>
+      <c r="AFX6" s="0"/>
+      <c r="AFY6" s="0"/>
+      <c r="AFZ6" s="0"/>
+      <c r="AGA6" s="0"/>
+      <c r="AGB6" s="0"/>
+      <c r="AGC6" s="0"/>
+      <c r="AGD6" s="0"/>
+      <c r="AGE6" s="0"/>
+      <c r="AGF6" s="0"/>
+      <c r="AGG6" s="0"/>
+      <c r="AGH6" s="0"/>
+      <c r="AGI6" s="0"/>
+      <c r="AGJ6" s="0"/>
+      <c r="AGK6" s="0"/>
+      <c r="AGL6" s="0"/>
+      <c r="AGM6" s="0"/>
+      <c r="AGN6" s="0"/>
+      <c r="AGO6" s="0"/>
+      <c r="AGP6" s="0"/>
+      <c r="AGQ6" s="0"/>
+      <c r="AGR6" s="0"/>
+      <c r="AGS6" s="0"/>
+      <c r="AGT6" s="0"/>
+      <c r="AGU6" s="0"/>
+      <c r="AGV6" s="0"/>
+      <c r="AGW6" s="0"/>
+      <c r="AGX6" s="0"/>
+      <c r="AGY6" s="0"/>
+      <c r="AGZ6" s="0"/>
+      <c r="AHA6" s="0"/>
+      <c r="AHB6" s="0"/>
+      <c r="AHC6" s="0"/>
+      <c r="AHD6" s="0"/>
+      <c r="AHE6" s="0"/>
+      <c r="AHF6" s="0"/>
+      <c r="AHG6" s="0"/>
+      <c r="AHH6" s="0"/>
+      <c r="AHI6" s="0"/>
+      <c r="AHJ6" s="0"/>
+      <c r="AHK6" s="0"/>
+      <c r="AHL6" s="0"/>
+      <c r="AHM6" s="0"/>
+      <c r="AHN6" s="0"/>
+      <c r="AHO6" s="0"/>
+      <c r="AHP6" s="0"/>
+      <c r="AHQ6" s="0"/>
+      <c r="AHR6" s="0"/>
+      <c r="AHS6" s="0"/>
+      <c r="AHT6" s="0"/>
+      <c r="AHU6" s="0"/>
+      <c r="AHV6" s="0"/>
+      <c r="AHW6" s="0"/>
+      <c r="AHX6" s="0"/>
+      <c r="AHY6" s="0"/>
+      <c r="AHZ6" s="0"/>
+      <c r="AIA6" s="0"/>
+      <c r="AIB6" s="0"/>
+      <c r="AIC6" s="0"/>
+      <c r="AID6" s="0"/>
+      <c r="AIE6" s="0"/>
+      <c r="AIF6" s="0"/>
+      <c r="AIG6" s="0"/>
+      <c r="AIH6" s="0"/>
+      <c r="AII6" s="0"/>
+      <c r="AIJ6" s="0"/>
+      <c r="AIK6" s="0"/>
+      <c r="AIL6" s="0"/>
+      <c r="AIM6" s="0"/>
+      <c r="AIN6" s="0"/>
+      <c r="AIO6" s="0"/>
+      <c r="AIP6" s="0"/>
+      <c r="AIQ6" s="0"/>
+      <c r="AIR6" s="0"/>
+      <c r="AIS6" s="0"/>
+      <c r="AIT6" s="0"/>
+      <c r="AIU6" s="0"/>
+      <c r="AIV6" s="0"/>
+      <c r="AIW6" s="0"/>
+      <c r="AIX6" s="0"/>
+      <c r="AIY6" s="0"/>
+      <c r="AIZ6" s="0"/>
+      <c r="AJA6" s="0"/>
+      <c r="AJB6" s="0"/>
+      <c r="AJC6" s="0"/>
+      <c r="AJD6" s="0"/>
+      <c r="AJE6" s="0"/>
+      <c r="AJF6" s="0"/>
+      <c r="AJG6" s="0"/>
+      <c r="AJH6" s="0"/>
+      <c r="AJI6" s="0"/>
+      <c r="AJJ6" s="0"/>
+      <c r="AJK6" s="0"/>
+      <c r="AJL6" s="0"/>
+      <c r="AJM6" s="0"/>
+      <c r="AJN6" s="0"/>
+      <c r="AJO6" s="0"/>
+      <c r="AJP6" s="0"/>
+      <c r="AJQ6" s="0"/>
+      <c r="AJR6" s="0"/>
+      <c r="AJS6" s="0"/>
+      <c r="AJT6" s="0"/>
+      <c r="AJU6" s="0"/>
+      <c r="AJV6" s="0"/>
+      <c r="AJW6" s="0"/>
+      <c r="AJX6" s="0"/>
+      <c r="AJY6" s="0"/>
+      <c r="AJZ6" s="0"/>
+      <c r="AKA6" s="0"/>
+      <c r="AKB6" s="0"/>
+      <c r="AKC6" s="0"/>
+      <c r="AKD6" s="0"/>
+      <c r="AKE6" s="0"/>
+      <c r="AKF6" s="0"/>
+      <c r="AKG6" s="0"/>
+      <c r="AKH6" s="0"/>
+      <c r="AKI6" s="0"/>
+      <c r="AKJ6" s="0"/>
+      <c r="AKK6" s="0"/>
+      <c r="AKL6" s="0"/>
+      <c r="AKM6" s="0"/>
+      <c r="AKN6" s="0"/>
+      <c r="AKO6" s="0"/>
+      <c r="AKP6" s="0"/>
+      <c r="AKQ6" s="0"/>
+      <c r="AKR6" s="0"/>
+      <c r="AKS6" s="0"/>
+      <c r="AKT6" s="0"/>
+      <c r="AKU6" s="0"/>
+      <c r="AKV6" s="0"/>
+      <c r="AKW6" s="0"/>
+      <c r="AKX6" s="0"/>
+      <c r="AKY6" s="0"/>
+      <c r="AKZ6" s="0"/>
+      <c r="ALA6" s="0"/>
+      <c r="ALB6" s="0"/>
+      <c r="ALC6" s="0"/>
+      <c r="ALD6" s="0"/>
+      <c r="ALE6" s="0"/>
+      <c r="ALF6" s="0"/>
+      <c r="ALG6" s="0"/>
+      <c r="ALH6" s="0"/>
+      <c r="ALI6" s="0"/>
+      <c r="ALJ6" s="0"/>
+      <c r="ALK6" s="0"/>
+      <c r="ALL6" s="0"/>
+      <c r="ALM6" s="0"/>
+      <c r="ALN6" s="0"/>
+      <c r="ALO6" s="0"/>
+      <c r="ALP6" s="0"/>
+      <c r="ALQ6" s="0"/>
+      <c r="ALR6" s="0"/>
+      <c r="ALS6" s="0"/>
+      <c r="ALT6" s="0"/>
+      <c r="ALU6" s="0"/>
+      <c r="ALV6" s="0"/>
+      <c r="ALW6" s="0"/>
+      <c r="ALX6" s="0"/>
+      <c r="ALY6" s="0"/>
+      <c r="ALZ6" s="0"/>
+      <c r="AMA6" s="0"/>
+      <c r="AMB6" s="0"/>
+      <c r="AMC6" s="0"/>
+      <c r="AMD6" s="0"/>
+      <c r="AME6" s="0"/>
+      <c r="AMF6" s="0"/>
+      <c r="AMG6" s="0"/>
+      <c r="AMH6" s="0"/>
+      <c r="AMI6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
@@ -617,6 +3659,1020 @@
       <c r="I7" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
+      <c r="AE7" s="0"/>
+      <c r="AF7" s="0"/>
+      <c r="AG7" s="0"/>
+      <c r="AH7" s="0"/>
+      <c r="AI7" s="0"/>
+      <c r="AJ7" s="0"/>
+      <c r="AK7" s="0"/>
+      <c r="AL7" s="0"/>
+      <c r="AM7" s="0"/>
+      <c r="AN7" s="0"/>
+      <c r="AO7" s="0"/>
+      <c r="AP7" s="0"/>
+      <c r="AQ7" s="0"/>
+      <c r="AR7" s="0"/>
+      <c r="AS7" s="0"/>
+      <c r="AT7" s="0"/>
+      <c r="AU7" s="0"/>
+      <c r="AV7" s="0"/>
+      <c r="AW7" s="0"/>
+      <c r="AX7" s="0"/>
+      <c r="AY7" s="0"/>
+      <c r="AZ7" s="0"/>
+      <c r="BA7" s="0"/>
+      <c r="BB7" s="0"/>
+      <c r="BC7" s="0"/>
+      <c r="BD7" s="0"/>
+      <c r="BE7" s="0"/>
+      <c r="BF7" s="0"/>
+      <c r="BG7" s="0"/>
+      <c r="BH7" s="0"/>
+      <c r="BI7" s="0"/>
+      <c r="BJ7" s="0"/>
+      <c r="BK7" s="0"/>
+      <c r="BL7" s="0"/>
+      <c r="BM7" s="0"/>
+      <c r="BN7" s="0"/>
+      <c r="BO7" s="0"/>
+      <c r="BP7" s="0"/>
+      <c r="BQ7" s="0"/>
+      <c r="BR7" s="0"/>
+      <c r="BS7" s="0"/>
+      <c r="BT7" s="0"/>
+      <c r="BU7" s="0"/>
+      <c r="BV7" s="0"/>
+      <c r="BW7" s="0"/>
+      <c r="BX7" s="0"/>
+      <c r="BY7" s="0"/>
+      <c r="BZ7" s="0"/>
+      <c r="CA7" s="0"/>
+      <c r="CB7" s="0"/>
+      <c r="CC7" s="0"/>
+      <c r="CD7" s="0"/>
+      <c r="CE7" s="0"/>
+      <c r="CF7" s="0"/>
+      <c r="CG7" s="0"/>
+      <c r="CH7" s="0"/>
+      <c r="CI7" s="0"/>
+      <c r="CJ7" s="0"/>
+      <c r="CK7" s="0"/>
+      <c r="CL7" s="0"/>
+      <c r="CM7" s="0"/>
+      <c r="CN7" s="0"/>
+      <c r="CO7" s="0"/>
+      <c r="CP7" s="0"/>
+      <c r="CQ7" s="0"/>
+      <c r="CR7" s="0"/>
+      <c r="CS7" s="0"/>
+      <c r="CT7" s="0"/>
+      <c r="CU7" s="0"/>
+      <c r="CV7" s="0"/>
+      <c r="CW7" s="0"/>
+      <c r="CX7" s="0"/>
+      <c r="CY7" s="0"/>
+      <c r="CZ7" s="0"/>
+      <c r="DA7" s="0"/>
+      <c r="DB7" s="0"/>
+      <c r="DC7" s="0"/>
+      <c r="DD7" s="0"/>
+      <c r="DE7" s="0"/>
+      <c r="DF7" s="0"/>
+      <c r="DG7" s="0"/>
+      <c r="DH7" s="0"/>
+      <c r="DI7" s="0"/>
+      <c r="DJ7" s="0"/>
+      <c r="DK7" s="0"/>
+      <c r="DL7" s="0"/>
+      <c r="DM7" s="0"/>
+      <c r="DN7" s="0"/>
+      <c r="DO7" s="0"/>
+      <c r="DP7" s="0"/>
+      <c r="DQ7" s="0"/>
+      <c r="DR7" s="0"/>
+      <c r="DS7" s="0"/>
+      <c r="DT7" s="0"/>
+      <c r="DU7" s="0"/>
+      <c r="DV7" s="0"/>
+      <c r="DW7" s="0"/>
+      <c r="DX7" s="0"/>
+      <c r="DY7" s="0"/>
+      <c r="DZ7" s="0"/>
+      <c r="EA7" s="0"/>
+      <c r="EB7" s="0"/>
+      <c r="EC7" s="0"/>
+      <c r="ED7" s="0"/>
+      <c r="EE7" s="0"/>
+      <c r="EF7" s="0"/>
+      <c r="EG7" s="0"/>
+      <c r="EH7" s="0"/>
+      <c r="EI7" s="0"/>
+      <c r="EJ7" s="0"/>
+      <c r="EK7" s="0"/>
+      <c r="EL7" s="0"/>
+      <c r="EM7" s="0"/>
+      <c r="EN7" s="0"/>
+      <c r="EO7" s="0"/>
+      <c r="EP7" s="0"/>
+      <c r="EQ7" s="0"/>
+      <c r="ER7" s="0"/>
+      <c r="ES7" s="0"/>
+      <c r="ET7" s="0"/>
+      <c r="EU7" s="0"/>
+      <c r="EV7" s="0"/>
+      <c r="EW7" s="0"/>
+      <c r="EX7" s="0"/>
+      <c r="EY7" s="0"/>
+      <c r="EZ7" s="0"/>
+      <c r="FA7" s="0"/>
+      <c r="FB7" s="0"/>
+      <c r="FC7" s="0"/>
+      <c r="FD7" s="0"/>
+      <c r="FE7" s="0"/>
+      <c r="FF7" s="0"/>
+      <c r="FG7" s="0"/>
+      <c r="FH7" s="0"/>
+      <c r="FI7" s="0"/>
+      <c r="FJ7" s="0"/>
+      <c r="FK7" s="0"/>
+      <c r="FL7" s="0"/>
+      <c r="FM7" s="0"/>
+      <c r="FN7" s="0"/>
+      <c r="FO7" s="0"/>
+      <c r="FP7" s="0"/>
+      <c r="FQ7" s="0"/>
+      <c r="FR7" s="0"/>
+      <c r="FS7" s="0"/>
+      <c r="FT7" s="0"/>
+      <c r="FU7" s="0"/>
+      <c r="FV7" s="0"/>
+      <c r="FW7" s="0"/>
+      <c r="FX7" s="0"/>
+      <c r="FY7" s="0"/>
+      <c r="FZ7" s="0"/>
+      <c r="GA7" s="0"/>
+      <c r="GB7" s="0"/>
+      <c r="GC7" s="0"/>
+      <c r="GD7" s="0"/>
+      <c r="GE7" s="0"/>
+      <c r="GF7" s="0"/>
+      <c r="GG7" s="0"/>
+      <c r="GH7" s="0"/>
+      <c r="GI7" s="0"/>
+      <c r="GJ7" s="0"/>
+      <c r="GK7" s="0"/>
+      <c r="GL7" s="0"/>
+      <c r="GM7" s="0"/>
+      <c r="GN7" s="0"/>
+      <c r="GO7" s="0"/>
+      <c r="GP7" s="0"/>
+      <c r="GQ7" s="0"/>
+      <c r="GR7" s="0"/>
+      <c r="GS7" s="0"/>
+      <c r="GT7" s="0"/>
+      <c r="GU7" s="0"/>
+      <c r="GV7" s="0"/>
+      <c r="GW7" s="0"/>
+      <c r="GX7" s="0"/>
+      <c r="GY7" s="0"/>
+      <c r="GZ7" s="0"/>
+      <c r="HA7" s="0"/>
+      <c r="HB7" s="0"/>
+      <c r="HC7" s="0"/>
+      <c r="HD7" s="0"/>
+      <c r="HE7" s="0"/>
+      <c r="HF7" s="0"/>
+      <c r="HG7" s="0"/>
+      <c r="HH7" s="0"/>
+      <c r="HI7" s="0"/>
+      <c r="HJ7" s="0"/>
+      <c r="HK7" s="0"/>
+      <c r="HL7" s="0"/>
+      <c r="HM7" s="0"/>
+      <c r="HN7" s="0"/>
+      <c r="HO7" s="0"/>
+      <c r="HP7" s="0"/>
+      <c r="HQ7" s="0"/>
+      <c r="HR7" s="0"/>
+      <c r="HS7" s="0"/>
+      <c r="HT7" s="0"/>
+      <c r="HU7" s="0"/>
+      <c r="HV7" s="0"/>
+      <c r="HW7" s="0"/>
+      <c r="HX7" s="0"/>
+      <c r="HY7" s="0"/>
+      <c r="HZ7" s="0"/>
+      <c r="IA7" s="0"/>
+      <c r="IB7" s="0"/>
+      <c r="IC7" s="0"/>
+      <c r="ID7" s="0"/>
+      <c r="IE7" s="0"/>
+      <c r="IF7" s="0"/>
+      <c r="IG7" s="0"/>
+      <c r="IH7" s="0"/>
+      <c r="II7" s="0"/>
+      <c r="IJ7" s="0"/>
+      <c r="IK7" s="0"/>
+      <c r="IL7" s="0"/>
+      <c r="IM7" s="0"/>
+      <c r="IN7" s="0"/>
+      <c r="IO7" s="0"/>
+      <c r="IP7" s="0"/>
+      <c r="IQ7" s="0"/>
+      <c r="IR7" s="0"/>
+      <c r="IS7" s="0"/>
+      <c r="IT7" s="0"/>
+      <c r="IU7" s="0"/>
+      <c r="IV7" s="0"/>
+      <c r="IW7" s="0"/>
+      <c r="IX7" s="0"/>
+      <c r="IY7" s="0"/>
+      <c r="IZ7" s="0"/>
+      <c r="JA7" s="0"/>
+      <c r="JB7" s="0"/>
+      <c r="JC7" s="0"/>
+      <c r="JD7" s="0"/>
+      <c r="JE7" s="0"/>
+      <c r="JF7" s="0"/>
+      <c r="JG7" s="0"/>
+      <c r="JH7" s="0"/>
+      <c r="JI7" s="0"/>
+      <c r="JJ7" s="0"/>
+      <c r="JK7" s="0"/>
+      <c r="JL7" s="0"/>
+      <c r="JM7" s="0"/>
+      <c r="JN7" s="0"/>
+      <c r="JO7" s="0"/>
+      <c r="JP7" s="0"/>
+      <c r="JQ7" s="0"/>
+      <c r="JR7" s="0"/>
+      <c r="JS7" s="0"/>
+      <c r="JT7" s="0"/>
+      <c r="JU7" s="0"/>
+      <c r="JV7" s="0"/>
+      <c r="JW7" s="0"/>
+      <c r="JX7" s="0"/>
+      <c r="JY7" s="0"/>
+      <c r="JZ7" s="0"/>
+      <c r="KA7" s="0"/>
+      <c r="KB7" s="0"/>
+      <c r="KC7" s="0"/>
+      <c r="KD7" s="0"/>
+      <c r="KE7" s="0"/>
+      <c r="KF7" s="0"/>
+      <c r="KG7" s="0"/>
+      <c r="KH7" s="0"/>
+      <c r="KI7" s="0"/>
+      <c r="KJ7" s="0"/>
+      <c r="KK7" s="0"/>
+      <c r="KL7" s="0"/>
+      <c r="KM7" s="0"/>
+      <c r="KN7" s="0"/>
+      <c r="KO7" s="0"/>
+      <c r="KP7" s="0"/>
+      <c r="KQ7" s="0"/>
+      <c r="KR7" s="0"/>
+      <c r="KS7" s="0"/>
+      <c r="KT7" s="0"/>
+      <c r="KU7" s="0"/>
+      <c r="KV7" s="0"/>
+      <c r="KW7" s="0"/>
+      <c r="KX7" s="0"/>
+      <c r="KY7" s="0"/>
+      <c r="KZ7" s="0"/>
+      <c r="LA7" s="0"/>
+      <c r="LB7" s="0"/>
+      <c r="LC7" s="0"/>
+      <c r="LD7" s="0"/>
+      <c r="LE7" s="0"/>
+      <c r="LF7" s="0"/>
+      <c r="LG7" s="0"/>
+      <c r="LH7" s="0"/>
+      <c r="LI7" s="0"/>
+      <c r="LJ7" s="0"/>
+      <c r="LK7" s="0"/>
+      <c r="LL7" s="0"/>
+      <c r="LM7" s="0"/>
+      <c r="LN7" s="0"/>
+      <c r="LO7" s="0"/>
+      <c r="LP7" s="0"/>
+      <c r="LQ7" s="0"/>
+      <c r="LR7" s="0"/>
+      <c r="LS7" s="0"/>
+      <c r="LT7" s="0"/>
+      <c r="LU7" s="0"/>
+      <c r="LV7" s="0"/>
+      <c r="LW7" s="0"/>
+      <c r="LX7" s="0"/>
+      <c r="LY7" s="0"/>
+      <c r="LZ7" s="0"/>
+      <c r="MA7" s="0"/>
+      <c r="MB7" s="0"/>
+      <c r="MC7" s="0"/>
+      <c r="MD7" s="0"/>
+      <c r="ME7" s="0"/>
+      <c r="MF7" s="0"/>
+      <c r="MG7" s="0"/>
+      <c r="MH7" s="0"/>
+      <c r="MI7" s="0"/>
+      <c r="MJ7" s="0"/>
+      <c r="MK7" s="0"/>
+      <c r="ML7" s="0"/>
+      <c r="MM7" s="0"/>
+      <c r="MN7" s="0"/>
+      <c r="MO7" s="0"/>
+      <c r="MP7" s="0"/>
+      <c r="MQ7" s="0"/>
+      <c r="MR7" s="0"/>
+      <c r="MS7" s="0"/>
+      <c r="MT7" s="0"/>
+      <c r="MU7" s="0"/>
+      <c r="MV7" s="0"/>
+      <c r="MW7" s="0"/>
+      <c r="MX7" s="0"/>
+      <c r="MY7" s="0"/>
+      <c r="MZ7" s="0"/>
+      <c r="NA7" s="0"/>
+      <c r="NB7" s="0"/>
+      <c r="NC7" s="0"/>
+      <c r="ND7" s="0"/>
+      <c r="NE7" s="0"/>
+      <c r="NF7" s="0"/>
+      <c r="NG7" s="0"/>
+      <c r="NH7" s="0"/>
+      <c r="NI7" s="0"/>
+      <c r="NJ7" s="0"/>
+      <c r="NK7" s="0"/>
+      <c r="NL7" s="0"/>
+      <c r="NM7" s="0"/>
+      <c r="NN7" s="0"/>
+      <c r="NO7" s="0"/>
+      <c r="NP7" s="0"/>
+      <c r="NQ7" s="0"/>
+      <c r="NR7" s="0"/>
+      <c r="NS7" s="0"/>
+      <c r="NT7" s="0"/>
+      <c r="NU7" s="0"/>
+      <c r="NV7" s="0"/>
+      <c r="NW7" s="0"/>
+      <c r="NX7" s="0"/>
+      <c r="NY7" s="0"/>
+      <c r="NZ7" s="0"/>
+      <c r="OA7" s="0"/>
+      <c r="OB7" s="0"/>
+      <c r="OC7" s="0"/>
+      <c r="OD7" s="0"/>
+      <c r="OE7" s="0"/>
+      <c r="OF7" s="0"/>
+      <c r="OG7" s="0"/>
+      <c r="OH7" s="0"/>
+      <c r="OI7" s="0"/>
+      <c r="OJ7" s="0"/>
+      <c r="OK7" s="0"/>
+      <c r="OL7" s="0"/>
+      <c r="OM7" s="0"/>
+      <c r="ON7" s="0"/>
+      <c r="OO7" s="0"/>
+      <c r="OP7" s="0"/>
+      <c r="OQ7" s="0"/>
+      <c r="OR7" s="0"/>
+      <c r="OS7" s="0"/>
+      <c r="OT7" s="0"/>
+      <c r="OU7" s="0"/>
+      <c r="OV7" s="0"/>
+      <c r="OW7" s="0"/>
+      <c r="OX7" s="0"/>
+      <c r="OY7" s="0"/>
+      <c r="OZ7" s="0"/>
+      <c r="PA7" s="0"/>
+      <c r="PB7" s="0"/>
+      <c r="PC7" s="0"/>
+      <c r="PD7" s="0"/>
+      <c r="PE7" s="0"/>
+      <c r="PF7" s="0"/>
+      <c r="PG7" s="0"/>
+      <c r="PH7" s="0"/>
+      <c r="PI7" s="0"/>
+      <c r="PJ7" s="0"/>
+      <c r="PK7" s="0"/>
+      <c r="PL7" s="0"/>
+      <c r="PM7" s="0"/>
+      <c r="PN7" s="0"/>
+      <c r="PO7" s="0"/>
+      <c r="PP7" s="0"/>
+      <c r="PQ7" s="0"/>
+      <c r="PR7" s="0"/>
+      <c r="PS7" s="0"/>
+      <c r="PT7" s="0"/>
+      <c r="PU7" s="0"/>
+      <c r="PV7" s="0"/>
+      <c r="PW7" s="0"/>
+      <c r="PX7" s="0"/>
+      <c r="PY7" s="0"/>
+      <c r="PZ7" s="0"/>
+      <c r="QA7" s="0"/>
+      <c r="QB7" s="0"/>
+      <c r="QC7" s="0"/>
+      <c r="QD7" s="0"/>
+      <c r="QE7" s="0"/>
+      <c r="QF7" s="0"/>
+      <c r="QG7" s="0"/>
+      <c r="QH7" s="0"/>
+      <c r="QI7" s="0"/>
+      <c r="QJ7" s="0"/>
+      <c r="QK7" s="0"/>
+      <c r="QL7" s="0"/>
+      <c r="QM7" s="0"/>
+      <c r="QN7" s="0"/>
+      <c r="QO7" s="0"/>
+      <c r="QP7" s="0"/>
+      <c r="QQ7" s="0"/>
+      <c r="QR7" s="0"/>
+      <c r="QS7" s="0"/>
+      <c r="QT7" s="0"/>
+      <c r="QU7" s="0"/>
+      <c r="QV7" s="0"/>
+      <c r="QW7" s="0"/>
+      <c r="QX7" s="0"/>
+      <c r="QY7" s="0"/>
+      <c r="QZ7" s="0"/>
+      <c r="RA7" s="0"/>
+      <c r="RB7" s="0"/>
+      <c r="RC7" s="0"/>
+      <c r="RD7" s="0"/>
+      <c r="RE7" s="0"/>
+      <c r="RF7" s="0"/>
+      <c r="RG7" s="0"/>
+      <c r="RH7" s="0"/>
+      <c r="RI7" s="0"/>
+      <c r="RJ7" s="0"/>
+      <c r="RK7" s="0"/>
+      <c r="RL7" s="0"/>
+      <c r="RM7" s="0"/>
+      <c r="RN7" s="0"/>
+      <c r="RO7" s="0"/>
+      <c r="RP7" s="0"/>
+      <c r="RQ7" s="0"/>
+      <c r="RR7" s="0"/>
+      <c r="RS7" s="0"/>
+      <c r="RT7" s="0"/>
+      <c r="RU7" s="0"/>
+      <c r="RV7" s="0"/>
+      <c r="RW7" s="0"/>
+      <c r="RX7" s="0"/>
+      <c r="RY7" s="0"/>
+      <c r="RZ7" s="0"/>
+      <c r="SA7" s="0"/>
+      <c r="SB7" s="0"/>
+      <c r="SC7" s="0"/>
+      <c r="SD7" s="0"/>
+      <c r="SE7" s="0"/>
+      <c r="SF7" s="0"/>
+      <c r="SG7" s="0"/>
+      <c r="SH7" s="0"/>
+      <c r="SI7" s="0"/>
+      <c r="SJ7" s="0"/>
+      <c r="SK7" s="0"/>
+      <c r="SL7" s="0"/>
+      <c r="SM7" s="0"/>
+      <c r="SN7" s="0"/>
+      <c r="SO7" s="0"/>
+      <c r="SP7" s="0"/>
+      <c r="SQ7" s="0"/>
+      <c r="SR7" s="0"/>
+      <c r="SS7" s="0"/>
+      <c r="ST7" s="0"/>
+      <c r="SU7" s="0"/>
+      <c r="SV7" s="0"/>
+      <c r="SW7" s="0"/>
+      <c r="SX7" s="0"/>
+      <c r="SY7" s="0"/>
+      <c r="SZ7" s="0"/>
+      <c r="TA7" s="0"/>
+      <c r="TB7" s="0"/>
+      <c r="TC7" s="0"/>
+      <c r="TD7" s="0"/>
+      <c r="TE7" s="0"/>
+      <c r="TF7" s="0"/>
+      <c r="TG7" s="0"/>
+      <c r="TH7" s="0"/>
+      <c r="TI7" s="0"/>
+      <c r="TJ7" s="0"/>
+      <c r="TK7" s="0"/>
+      <c r="TL7" s="0"/>
+      <c r="TM7" s="0"/>
+      <c r="TN7" s="0"/>
+      <c r="TO7" s="0"/>
+      <c r="TP7" s="0"/>
+      <c r="TQ7" s="0"/>
+      <c r="TR7" s="0"/>
+      <c r="TS7" s="0"/>
+      <c r="TT7" s="0"/>
+      <c r="TU7" s="0"/>
+      <c r="TV7" s="0"/>
+      <c r="TW7" s="0"/>
+      <c r="TX7" s="0"/>
+      <c r="TY7" s="0"/>
+      <c r="TZ7" s="0"/>
+      <c r="UA7" s="0"/>
+      <c r="UB7" s="0"/>
+      <c r="UC7" s="0"/>
+      <c r="UD7" s="0"/>
+      <c r="UE7" s="0"/>
+      <c r="UF7" s="0"/>
+      <c r="UG7" s="0"/>
+      <c r="UH7" s="0"/>
+      <c r="UI7" s="0"/>
+      <c r="UJ7" s="0"/>
+      <c r="UK7" s="0"/>
+      <c r="UL7" s="0"/>
+      <c r="UM7" s="0"/>
+      <c r="UN7" s="0"/>
+      <c r="UO7" s="0"/>
+      <c r="UP7" s="0"/>
+      <c r="UQ7" s="0"/>
+      <c r="UR7" s="0"/>
+      <c r="US7" s="0"/>
+      <c r="UT7" s="0"/>
+      <c r="UU7" s="0"/>
+      <c r="UV7" s="0"/>
+      <c r="UW7" s="0"/>
+      <c r="UX7" s="0"/>
+      <c r="UY7" s="0"/>
+      <c r="UZ7" s="0"/>
+      <c r="VA7" s="0"/>
+      <c r="VB7" s="0"/>
+      <c r="VC7" s="0"/>
+      <c r="VD7" s="0"/>
+      <c r="VE7" s="0"/>
+      <c r="VF7" s="0"/>
+      <c r="VG7" s="0"/>
+      <c r="VH7" s="0"/>
+      <c r="VI7" s="0"/>
+      <c r="VJ7" s="0"/>
+      <c r="VK7" s="0"/>
+      <c r="VL7" s="0"/>
+      <c r="VM7" s="0"/>
+      <c r="VN7" s="0"/>
+      <c r="VO7" s="0"/>
+      <c r="VP7" s="0"/>
+      <c r="VQ7" s="0"/>
+      <c r="VR7" s="0"/>
+      <c r="VS7" s="0"/>
+      <c r="VT7" s="0"/>
+      <c r="VU7" s="0"/>
+      <c r="VV7" s="0"/>
+      <c r="VW7" s="0"/>
+      <c r="VX7" s="0"/>
+      <c r="VY7" s="0"/>
+      <c r="VZ7" s="0"/>
+      <c r="WA7" s="0"/>
+      <c r="WB7" s="0"/>
+      <c r="WC7" s="0"/>
+      <c r="WD7" s="0"/>
+      <c r="WE7" s="0"/>
+      <c r="WF7" s="0"/>
+      <c r="WG7" s="0"/>
+      <c r="WH7" s="0"/>
+      <c r="WI7" s="0"/>
+      <c r="WJ7" s="0"/>
+      <c r="WK7" s="0"/>
+      <c r="WL7" s="0"/>
+      <c r="WM7" s="0"/>
+      <c r="WN7" s="0"/>
+      <c r="WO7" s="0"/>
+      <c r="WP7" s="0"/>
+      <c r="WQ7" s="0"/>
+      <c r="WR7" s="0"/>
+      <c r="WS7" s="0"/>
+      <c r="WT7" s="0"/>
+      <c r="WU7" s="0"/>
+      <c r="WV7" s="0"/>
+      <c r="WW7" s="0"/>
+      <c r="WX7" s="0"/>
+      <c r="WY7" s="0"/>
+      <c r="WZ7" s="0"/>
+      <c r="XA7" s="0"/>
+      <c r="XB7" s="0"/>
+      <c r="XC7" s="0"/>
+      <c r="XD7" s="0"/>
+      <c r="XE7" s="0"/>
+      <c r="XF7" s="0"/>
+      <c r="XG7" s="0"/>
+      <c r="XH7" s="0"/>
+      <c r="XI7" s="0"/>
+      <c r="XJ7" s="0"/>
+      <c r="XK7" s="0"/>
+      <c r="XL7" s="0"/>
+      <c r="XM7" s="0"/>
+      <c r="XN7" s="0"/>
+      <c r="XO7" s="0"/>
+      <c r="XP7" s="0"/>
+      <c r="XQ7" s="0"/>
+      <c r="XR7" s="0"/>
+      <c r="XS7" s="0"/>
+      <c r="XT7" s="0"/>
+      <c r="XU7" s="0"/>
+      <c r="XV7" s="0"/>
+      <c r="XW7" s="0"/>
+      <c r="XX7" s="0"/>
+      <c r="XY7" s="0"/>
+      <c r="XZ7" s="0"/>
+      <c r="YA7" s="0"/>
+      <c r="YB7" s="0"/>
+      <c r="YC7" s="0"/>
+      <c r="YD7" s="0"/>
+      <c r="YE7" s="0"/>
+      <c r="YF7" s="0"/>
+      <c r="YG7" s="0"/>
+      <c r="YH7" s="0"/>
+      <c r="YI7" s="0"/>
+      <c r="YJ7" s="0"/>
+      <c r="YK7" s="0"/>
+      <c r="YL7" s="0"/>
+      <c r="YM7" s="0"/>
+      <c r="YN7" s="0"/>
+      <c r="YO7" s="0"/>
+      <c r="YP7" s="0"/>
+      <c r="YQ7" s="0"/>
+      <c r="YR7" s="0"/>
+      <c r="YS7" s="0"/>
+      <c r="YT7" s="0"/>
+      <c r="YU7" s="0"/>
+      <c r="YV7" s="0"/>
+      <c r="YW7" s="0"/>
+      <c r="YX7" s="0"/>
+      <c r="YY7" s="0"/>
+      <c r="YZ7" s="0"/>
+      <c r="ZA7" s="0"/>
+      <c r="ZB7" s="0"/>
+      <c r="ZC7" s="0"/>
+      <c r="ZD7" s="0"/>
+      <c r="ZE7" s="0"/>
+      <c r="ZF7" s="0"/>
+      <c r="ZG7" s="0"/>
+      <c r="ZH7" s="0"/>
+      <c r="ZI7" s="0"/>
+      <c r="ZJ7" s="0"/>
+      <c r="ZK7" s="0"/>
+      <c r="ZL7" s="0"/>
+      <c r="ZM7" s="0"/>
+      <c r="ZN7" s="0"/>
+      <c r="ZO7" s="0"/>
+      <c r="ZP7" s="0"/>
+      <c r="ZQ7" s="0"/>
+      <c r="ZR7" s="0"/>
+      <c r="ZS7" s="0"/>
+      <c r="ZT7" s="0"/>
+      <c r="ZU7" s="0"/>
+      <c r="ZV7" s="0"/>
+      <c r="ZW7" s="0"/>
+      <c r="ZX7" s="0"/>
+      <c r="ZY7" s="0"/>
+      <c r="ZZ7" s="0"/>
+      <c r="AAA7" s="0"/>
+      <c r="AAB7" s="0"/>
+      <c r="AAC7" s="0"/>
+      <c r="AAD7" s="0"/>
+      <c r="AAE7" s="0"/>
+      <c r="AAF7" s="0"/>
+      <c r="AAG7" s="0"/>
+      <c r="AAH7" s="0"/>
+      <c r="AAI7" s="0"/>
+      <c r="AAJ7" s="0"/>
+      <c r="AAK7" s="0"/>
+      <c r="AAL7" s="0"/>
+      <c r="AAM7" s="0"/>
+      <c r="AAN7" s="0"/>
+      <c r="AAO7" s="0"/>
+      <c r="AAP7" s="0"/>
+      <c r="AAQ7" s="0"/>
+      <c r="AAR7" s="0"/>
+      <c r="AAS7" s="0"/>
+      <c r="AAT7" s="0"/>
+      <c r="AAU7" s="0"/>
+      <c r="AAV7" s="0"/>
+      <c r="AAW7" s="0"/>
+      <c r="AAX7" s="0"/>
+      <c r="AAY7" s="0"/>
+      <c r="AAZ7" s="0"/>
+      <c r="ABA7" s="0"/>
+      <c r="ABB7" s="0"/>
+      <c r="ABC7" s="0"/>
+      <c r="ABD7" s="0"/>
+      <c r="ABE7" s="0"/>
+      <c r="ABF7" s="0"/>
+      <c r="ABG7" s="0"/>
+      <c r="ABH7" s="0"/>
+      <c r="ABI7" s="0"/>
+      <c r="ABJ7" s="0"/>
+      <c r="ABK7" s="0"/>
+      <c r="ABL7" s="0"/>
+      <c r="ABM7" s="0"/>
+      <c r="ABN7" s="0"/>
+      <c r="ABO7" s="0"/>
+      <c r="ABP7" s="0"/>
+      <c r="ABQ7" s="0"/>
+      <c r="ABR7" s="0"/>
+      <c r="ABS7" s="0"/>
+      <c r="ABT7" s="0"/>
+      <c r="ABU7" s="0"/>
+      <c r="ABV7" s="0"/>
+      <c r="ABW7" s="0"/>
+      <c r="ABX7" s="0"/>
+      <c r="ABY7" s="0"/>
+      <c r="ABZ7" s="0"/>
+      <c r="ACA7" s="0"/>
+      <c r="ACB7" s="0"/>
+      <c r="ACC7" s="0"/>
+      <c r="ACD7" s="0"/>
+      <c r="ACE7" s="0"/>
+      <c r="ACF7" s="0"/>
+      <c r="ACG7" s="0"/>
+      <c r="ACH7" s="0"/>
+      <c r="ACI7" s="0"/>
+      <c r="ACJ7" s="0"/>
+      <c r="ACK7" s="0"/>
+      <c r="ACL7" s="0"/>
+      <c r="ACM7" s="0"/>
+      <c r="ACN7" s="0"/>
+      <c r="ACO7" s="0"/>
+      <c r="ACP7" s="0"/>
+      <c r="ACQ7" s="0"/>
+      <c r="ACR7" s="0"/>
+      <c r="ACS7" s="0"/>
+      <c r="ACT7" s="0"/>
+      <c r="ACU7" s="0"/>
+      <c r="ACV7" s="0"/>
+      <c r="ACW7" s="0"/>
+      <c r="ACX7" s="0"/>
+      <c r="ACY7" s="0"/>
+      <c r="ACZ7" s="0"/>
+      <c r="ADA7" s="0"/>
+      <c r="ADB7" s="0"/>
+      <c r="ADC7" s="0"/>
+      <c r="ADD7" s="0"/>
+      <c r="ADE7" s="0"/>
+      <c r="ADF7" s="0"/>
+      <c r="ADG7" s="0"/>
+      <c r="ADH7" s="0"/>
+      <c r="ADI7" s="0"/>
+      <c r="ADJ7" s="0"/>
+      <c r="ADK7" s="0"/>
+      <c r="ADL7" s="0"/>
+      <c r="ADM7" s="0"/>
+      <c r="ADN7" s="0"/>
+      <c r="ADO7" s="0"/>
+      <c r="ADP7" s="0"/>
+      <c r="ADQ7" s="0"/>
+      <c r="ADR7" s="0"/>
+      <c r="ADS7" s="0"/>
+      <c r="ADT7" s="0"/>
+      <c r="ADU7" s="0"/>
+      <c r="ADV7" s="0"/>
+      <c r="ADW7" s="0"/>
+      <c r="ADX7" s="0"/>
+      <c r="ADY7" s="0"/>
+      <c r="ADZ7" s="0"/>
+      <c r="AEA7" s="0"/>
+      <c r="AEB7" s="0"/>
+      <c r="AEC7" s="0"/>
+      <c r="AED7" s="0"/>
+      <c r="AEE7" s="0"/>
+      <c r="AEF7" s="0"/>
+      <c r="AEG7" s="0"/>
+      <c r="AEH7" s="0"/>
+      <c r="AEI7" s="0"/>
+      <c r="AEJ7" s="0"/>
+      <c r="AEK7" s="0"/>
+      <c r="AEL7" s="0"/>
+      <c r="AEM7" s="0"/>
+      <c r="AEN7" s="0"/>
+      <c r="AEO7" s="0"/>
+      <c r="AEP7" s="0"/>
+      <c r="AEQ7" s="0"/>
+      <c r="AER7" s="0"/>
+      <c r="AES7" s="0"/>
+      <c r="AET7" s="0"/>
+      <c r="AEU7" s="0"/>
+      <c r="AEV7" s="0"/>
+      <c r="AEW7" s="0"/>
+      <c r="AEX7" s="0"/>
+      <c r="AEY7" s="0"/>
+      <c r="AEZ7" s="0"/>
+      <c r="AFA7" s="0"/>
+      <c r="AFB7" s="0"/>
+      <c r="AFC7" s="0"/>
+      <c r="AFD7" s="0"/>
+      <c r="AFE7" s="0"/>
+      <c r="AFF7" s="0"/>
+      <c r="AFG7" s="0"/>
+      <c r="AFH7" s="0"/>
+      <c r="AFI7" s="0"/>
+      <c r="AFJ7" s="0"/>
+      <c r="AFK7" s="0"/>
+      <c r="AFL7" s="0"/>
+      <c r="AFM7" s="0"/>
+      <c r="AFN7" s="0"/>
+      <c r="AFO7" s="0"/>
+      <c r="AFP7" s="0"/>
+      <c r="AFQ7" s="0"/>
+      <c r="AFR7" s="0"/>
+      <c r="AFS7" s="0"/>
+      <c r="AFT7" s="0"/>
+      <c r="AFU7" s="0"/>
+      <c r="AFV7" s="0"/>
+      <c r="AFW7" s="0"/>
+      <c r="AFX7" s="0"/>
+      <c r="AFY7" s="0"/>
+      <c r="AFZ7" s="0"/>
+      <c r="AGA7" s="0"/>
+      <c r="AGB7" s="0"/>
+      <c r="AGC7" s="0"/>
+      <c r="AGD7" s="0"/>
+      <c r="AGE7" s="0"/>
+      <c r="AGF7" s="0"/>
+      <c r="AGG7" s="0"/>
+      <c r="AGH7" s="0"/>
+      <c r="AGI7" s="0"/>
+      <c r="AGJ7" s="0"/>
+      <c r="AGK7" s="0"/>
+      <c r="AGL7" s="0"/>
+      <c r="AGM7" s="0"/>
+      <c r="AGN7" s="0"/>
+      <c r="AGO7" s="0"/>
+      <c r="AGP7" s="0"/>
+      <c r="AGQ7" s="0"/>
+      <c r="AGR7" s="0"/>
+      <c r="AGS7" s="0"/>
+      <c r="AGT7" s="0"/>
+      <c r="AGU7" s="0"/>
+      <c r="AGV7" s="0"/>
+      <c r="AGW7" s="0"/>
+      <c r="AGX7" s="0"/>
+      <c r="AGY7" s="0"/>
+      <c r="AGZ7" s="0"/>
+      <c r="AHA7" s="0"/>
+      <c r="AHB7" s="0"/>
+      <c r="AHC7" s="0"/>
+      <c r="AHD7" s="0"/>
+      <c r="AHE7" s="0"/>
+      <c r="AHF7" s="0"/>
+      <c r="AHG7" s="0"/>
+      <c r="AHH7" s="0"/>
+      <c r="AHI7" s="0"/>
+      <c r="AHJ7" s="0"/>
+      <c r="AHK7" s="0"/>
+      <c r="AHL7" s="0"/>
+      <c r="AHM7" s="0"/>
+      <c r="AHN7" s="0"/>
+      <c r="AHO7" s="0"/>
+      <c r="AHP7" s="0"/>
+      <c r="AHQ7" s="0"/>
+      <c r="AHR7" s="0"/>
+      <c r="AHS7" s="0"/>
+      <c r="AHT7" s="0"/>
+      <c r="AHU7" s="0"/>
+      <c r="AHV7" s="0"/>
+      <c r="AHW7" s="0"/>
+      <c r="AHX7" s="0"/>
+      <c r="AHY7" s="0"/>
+      <c r="AHZ7" s="0"/>
+      <c r="AIA7" s="0"/>
+      <c r="AIB7" s="0"/>
+      <c r="AIC7" s="0"/>
+      <c r="AID7" s="0"/>
+      <c r="AIE7" s="0"/>
+      <c r="AIF7" s="0"/>
+      <c r="AIG7" s="0"/>
+      <c r="AIH7" s="0"/>
+      <c r="AII7" s="0"/>
+      <c r="AIJ7" s="0"/>
+      <c r="AIK7" s="0"/>
+      <c r="AIL7" s="0"/>
+      <c r="AIM7" s="0"/>
+      <c r="AIN7" s="0"/>
+      <c r="AIO7" s="0"/>
+      <c r="AIP7" s="0"/>
+      <c r="AIQ7" s="0"/>
+      <c r="AIR7" s="0"/>
+      <c r="AIS7" s="0"/>
+      <c r="AIT7" s="0"/>
+      <c r="AIU7" s="0"/>
+      <c r="AIV7" s="0"/>
+      <c r="AIW7" s="0"/>
+      <c r="AIX7" s="0"/>
+      <c r="AIY7" s="0"/>
+      <c r="AIZ7" s="0"/>
+      <c r="AJA7" s="0"/>
+      <c r="AJB7" s="0"/>
+      <c r="AJC7" s="0"/>
+      <c r="AJD7" s="0"/>
+      <c r="AJE7" s="0"/>
+      <c r="AJF7" s="0"/>
+      <c r="AJG7" s="0"/>
+      <c r="AJH7" s="0"/>
+      <c r="AJI7" s="0"/>
+      <c r="AJJ7" s="0"/>
+      <c r="AJK7" s="0"/>
+      <c r="AJL7" s="0"/>
+      <c r="AJM7" s="0"/>
+      <c r="AJN7" s="0"/>
+      <c r="AJO7" s="0"/>
+      <c r="AJP7" s="0"/>
+      <c r="AJQ7" s="0"/>
+      <c r="AJR7" s="0"/>
+      <c r="AJS7" s="0"/>
+      <c r="AJT7" s="0"/>
+      <c r="AJU7" s="0"/>
+      <c r="AJV7" s="0"/>
+      <c r="AJW7" s="0"/>
+      <c r="AJX7" s="0"/>
+      <c r="AJY7" s="0"/>
+      <c r="AJZ7" s="0"/>
+      <c r="AKA7" s="0"/>
+      <c r="AKB7" s="0"/>
+      <c r="AKC7" s="0"/>
+      <c r="AKD7" s="0"/>
+      <c r="AKE7" s="0"/>
+      <c r="AKF7" s="0"/>
+      <c r="AKG7" s="0"/>
+      <c r="AKH7" s="0"/>
+      <c r="AKI7" s="0"/>
+      <c r="AKJ7" s="0"/>
+      <c r="AKK7" s="0"/>
+      <c r="AKL7" s="0"/>
+      <c r="AKM7" s="0"/>
+      <c r="AKN7" s="0"/>
+      <c r="AKO7" s="0"/>
+      <c r="AKP7" s="0"/>
+      <c r="AKQ7" s="0"/>
+      <c r="AKR7" s="0"/>
+      <c r="AKS7" s="0"/>
+      <c r="AKT7" s="0"/>
+      <c r="AKU7" s="0"/>
+      <c r="AKV7" s="0"/>
+      <c r="AKW7" s="0"/>
+      <c r="AKX7" s="0"/>
+      <c r="AKY7" s="0"/>
+      <c r="AKZ7" s="0"/>
+      <c r="ALA7" s="0"/>
+      <c r="ALB7" s="0"/>
+      <c r="ALC7" s="0"/>
+      <c r="ALD7" s="0"/>
+      <c r="ALE7" s="0"/>
+      <c r="ALF7" s="0"/>
+      <c r="ALG7" s="0"/>
+      <c r="ALH7" s="0"/>
+      <c r="ALI7" s="0"/>
+      <c r="ALJ7" s="0"/>
+      <c r="ALK7" s="0"/>
+      <c r="ALL7" s="0"/>
+      <c r="ALM7" s="0"/>
+      <c r="ALN7" s="0"/>
+      <c r="ALO7" s="0"/>
+      <c r="ALP7" s="0"/>
+      <c r="ALQ7" s="0"/>
+      <c r="ALR7" s="0"/>
+      <c r="ALS7" s="0"/>
+      <c r="ALT7" s="0"/>
+      <c r="ALU7" s="0"/>
+      <c r="ALV7" s="0"/>
+      <c r="ALW7" s="0"/>
+      <c r="ALX7" s="0"/>
+      <c r="ALY7" s="0"/>
+      <c r="ALZ7" s="0"/>
+      <c r="AMA7" s="0"/>
+      <c r="AMB7" s="0"/>
+      <c r="AMC7" s="0"/>
+      <c r="AMD7" s="0"/>
+      <c r="AME7" s="0"/>
+      <c r="AMF7" s="0"/>
+      <c r="AMG7" s="0"/>
+      <c r="AMH7" s="0"/>
+      <c r="AMI7" s="0"/>
     </row>
     <row r="8" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7"/>

--- a/main/static/records/Grade2.xlsx
+++ b/main/static/records/Grade2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t xml:space="preserve">RFID No.</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">STUDENT ID NUMBER</t>
   </si>
   <si>
+    <t xml:space="preserve">0006608379</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bayani</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t xml:space="preserve">18-0030</t>
   </si>
   <si>
+    <t xml:space="preserve">0006605934</t>
+  </si>
+  <si>
     <t xml:space="preserve">De Gala</t>
   </si>
   <si>
@@ -91,6 +97,9 @@
     <t xml:space="preserve">18-0031</t>
   </si>
   <si>
+    <t xml:space="preserve">0006602296</t>
+  </si>
+  <si>
     <t xml:space="preserve">Maniebo</t>
   </si>
   <si>
@@ -112,7 +121,7 @@
     <t xml:space="preserve">18-0032</t>
   </si>
   <si>
-    <t xml:space="preserve">0006602570</t>
+    <t xml:space="preserve">0006112892</t>
   </si>
   <si>
     <t xml:space="preserve">Mangundayao</t>
@@ -130,6 +139,9 @@
     <t xml:space="preserve">18-0034</t>
   </si>
   <si>
+    <t xml:space="preserve">0006614484</t>
+  </si>
+  <si>
     <t xml:space="preserve">Paras</t>
   </si>
   <si>
@@ -173,24 +185,6 @@
   </si>
   <si>
     <t xml:space="preserve">18-0036</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Van Der Westhuizen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Christiaan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norie Padillo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09229076800</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18-0037</t>
   </si>
 </sst>
 </file>
@@ -286,7 +280,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -304,10 +298,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -400,24 +390,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:8"/>
+  <dimension ref="1:7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.5510204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="53.8622448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="29.4285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.765306122449"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="51.969387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="2" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="18.0867346938776"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -451,30 +441,32 @@
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5"/>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
@@ -1491,59 +1483,63 @@
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
     </row>
-    <row r="3" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="7" t="s">
+    <row r="3" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>21</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="AMJ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5"/>
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
@@ -2560,61 +2556,63 @@
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
     </row>
-    <row r="5" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7" t="s">
+    <row r="5" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="C5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>35</v>
+        <v>16</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5"/>
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>39</v>
+        <v>42</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J6" s="0"/>
       <c r="K6" s="0"/>
@@ -3632,32 +3630,32 @@
       <c r="AMI6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>43</v>
+      <c r="A7" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J7" s="0"/>
       <c r="K7" s="0"/>
@@ -4674,34 +4672,6 @@
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
     </row>
-    <row r="8" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="AMJ8" s="0"/>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
